--- a/data/Model Parameters.Sara.work.xlsx
+++ b/data/Model Parameters.Sara.work.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20346"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKhan\Desktop\EpiModelHIV_clean\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAF4A2B-6454-4BF7-B3CA-8AFD2A1EB91C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586DC072-5880-4F66-804B-9F06D9FCB87E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="10230" tabRatio="438" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="10230" tabRatio="405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="512">
   <si>
     <t>Detailed Descriptions</t>
   </si>
@@ -1685,6 +1685,12 @@
   </si>
   <si>
     <t>Steve</t>
+  </si>
+  <si>
+    <t>transmission probability - baseline transmission -  prob of transmission given not using condom and viral loda at setpoint - if at setpoint its (4 logs higher) mod.trans.shamp (epimodelHIV) ; acute phase its 4 (change in viral load on the log scale)** sara to check trans.shamp (changes it by 4)</t>
+  </si>
+  <si>
+    <t>Isolating the sources of racial disparities in HIV prevalence among men who have sex with men (MSM) in Atlanta, GA: A modeling study. Goodreau et al</t>
   </si>
 </sst>
 </file>
@@ -2518,159 +2524,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2753,26 +2606,179 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="110">
@@ -3170,28 +3176,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D652A1D-9736-4BEE-80A5-E7737557C8EE}">
   <dimension ref="A1:S242"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="52" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="137" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="137" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="52" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="48" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="116" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="245" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" style="7" customWidth="1"/>
-    <col min="11" max="15" width="25.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.73046875" style="52" customWidth="1"/>
+    <col min="2" max="2" width="25.73046875" style="137" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" style="137" customWidth="1"/>
+    <col min="4" max="4" width="30.73046875" customWidth="1"/>
+    <col min="5" max="5" width="25.73046875" style="52" customWidth="1"/>
+    <col min="6" max="6" width="25.73046875" style="48" customWidth="1"/>
+    <col min="7" max="7" width="25.73046875" style="116" customWidth="1"/>
+    <col min="8" max="8" width="25.73046875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="25.73046875" style="193" customWidth="1"/>
+    <col min="10" max="10" width="25.73046875" style="7" customWidth="1"/>
+    <col min="11" max="15" width="25.73046875" customWidth="1"/>
+    <col min="16" max="16" width="12.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="150" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="150" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
@@ -3237,11 +3243,11 @@
       <c r="O1" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="P1" s="248" t="s">
+      <c r="P1" s="196" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="59" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="59" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="54" t="s">
         <v>171</v>
       </c>
@@ -3250,7 +3256,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="54"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="219"/>
+      <c r="G2" s="168"/>
       <c r="H2" s="10"/>
       <c r="I2" s="73"/>
       <c r="J2" s="76"/>
@@ -3260,7 +3266,7 @@
       <c r="N2" s="62"/>
       <c r="O2" s="63"/>
     </row>
-    <row r="3" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
         <v>161</v>
       </c>
@@ -3271,13 +3277,13 @@
       <c r="D3" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="173" t="s">
+      <c r="E3" s="240" t="s">
         <v>171</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="G3" s="220" t="s">
+      <c r="G3" s="169" t="s">
         <v>268</v>
       </c>
       <c r="H3" s="143"/>
@@ -3295,7 +3301,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>161</v>
       </c>
@@ -3306,11 +3312,11 @@
       <c r="D4" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="E4" s="174"/>
+      <c r="E4" s="241"/>
       <c r="F4" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="G4" s="220">
+      <c r="G4" s="169">
         <v>18</v>
       </c>
       <c r="H4" s="143"/>
@@ -3328,7 +3334,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
         <v>161</v>
       </c>
@@ -3339,11 +3345,11 @@
       <c r="D5" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="E5" s="174"/>
+      <c r="E5" s="241"/>
       <c r="F5" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="G5" s="220">
+      <c r="G5" s="169">
         <v>46</v>
       </c>
       <c r="H5" s="143"/>
@@ -3361,7 +3367,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
         <v>323</v>
       </c>
@@ -3372,11 +3378,11 @@
       <c r="D6" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E6" s="174"/>
+      <c r="E6" s="241"/>
       <c r="F6" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="G6" s="221"/>
+      <c r="G6" s="170"/>
       <c r="H6" s="143"/>
       <c r="I6" s="153" t="s">
         <v>240</v>
@@ -3394,7 +3400,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="18" t="s">
         <v>326</v>
       </c>
@@ -3403,11 +3409,11 @@
       </c>
       <c r="C7" s="134"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="175"/>
+      <c r="E7" s="242"/>
       <c r="F7" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="G7" s="221"/>
+      <c r="G7" s="170"/>
       <c r="H7" s="143" t="s">
         <v>164</v>
       </c>
@@ -3427,7 +3433,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="59" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="59" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="57" t="s">
         <v>170</v>
       </c>
@@ -3436,7 +3442,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="56"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="222"/>
+      <c r="G8" s="171"/>
       <c r="H8" s="10"/>
       <c r="I8" s="73"/>
       <c r="J8" s="74"/>
@@ -3446,7 +3452,7 @@
       <c r="N8" s="62"/>
       <c r="O8" s="75"/>
     </row>
-    <row r="9" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
         <v>159</v>
       </c>
@@ -3459,7 +3465,7 @@
       <c r="D9" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="E9" s="170" t="s">
+      <c r="E9" s="237" t="s">
         <v>275</v>
       </c>
       <c r="F9" s="9" t="s">
@@ -3468,16 +3474,16 @@
       <c r="G9" s="116">
         <v>4.0537644994469499E-4</v>
       </c>
-      <c r="H9" s="208" t="s">
+      <c r="H9" s="199" t="s">
         <v>164</v>
       </c>
       <c r="I9" s="153" t="s">
         <v>240</v>
       </c>
-      <c r="J9" s="209" t="s">
+      <c r="J9" s="200" t="s">
         <v>305</v>
       </c>
-      <c r="K9" s="180" t="s">
+      <c r="K9" s="201" t="s">
         <v>329</v>
       </c>
       <c r="L9" s="11"/>
@@ -3487,7 +3493,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
         <v>159</v>
       </c>
@@ -3500,25 +3506,25 @@
       <c r="D10" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="E10" s="171"/>
+      <c r="E10" s="238"/>
       <c r="F10" s="9" t="s">
         <v>241</v>
       </c>
       <c r="G10" s="116">
         <v>6.6106631243490702E-4</v>
       </c>
-      <c r="H10" s="208"/>
+      <c r="H10" s="199"/>
       <c r="I10" s="153" t="s">
         <v>240</v>
       </c>
-      <c r="J10" s="180"/>
-      <c r="K10" s="180"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="201"/>
       <c r="L10" s="11"/>
       <c r="M10" s="23"/>
       <c r="N10" s="23"/>
       <c r="O10" s="8"/>
     </row>
-    <row r="11" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="13" t="s">
         <v>159</v>
       </c>
@@ -3531,25 +3537,25 @@
       <c r="D11" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="E11" s="171"/>
+      <c r="E11" s="238"/>
       <c r="F11" s="9" t="s">
         <v>241</v>
       </c>
       <c r="G11" s="116">
         <v>1.37805262652717E-3</v>
       </c>
-      <c r="H11" s="208"/>
+      <c r="H11" s="199"/>
       <c r="I11" s="153" t="s">
         <v>240</v>
       </c>
-      <c r="J11" s="180"/>
-      <c r="K11" s="180"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="201"/>
       <c r="L11" s="11"/>
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
       <c r="O11" s="8"/>
     </row>
-    <row r="12" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="13" t="s">
         <v>159</v>
       </c>
@@ -3562,25 +3568,25 @@
       <c r="D12" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E12" s="171"/>
+      <c r="E12" s="238"/>
       <c r="F12" s="9" t="s">
         <v>241</v>
       </c>
       <c r="G12" s="116">
         <v>8.5341727117056699E-4</v>
       </c>
-      <c r="H12" s="208"/>
+      <c r="H12" s="199"/>
       <c r="I12" s="153" t="s">
         <v>240</v>
       </c>
-      <c r="J12" s="180"/>
-      <c r="K12" s="180"/>
+      <c r="J12" s="201"/>
+      <c r="K12" s="201"/>
       <c r="L12" s="11"/>
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
       <c r="O12" s="8"/>
     </row>
-    <row r="13" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="13" t="s">
         <v>159</v>
       </c>
@@ -3593,25 +3599,25 @@
       <c r="D13" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="E13" s="171"/>
+      <c r="E13" s="238"/>
       <c r="F13" s="9" t="s">
         <v>241</v>
       </c>
       <c r="G13" s="116">
         <v>1.0840140507176401E-3</v>
       </c>
-      <c r="H13" s="208"/>
+      <c r="H13" s="199"/>
       <c r="I13" s="153" t="s">
         <v>240</v>
       </c>
-      <c r="J13" s="180"/>
-      <c r="K13" s="180"/>
+      <c r="J13" s="201"/>
+      <c r="K13" s="201"/>
       <c r="L13" s="11"/>
       <c r="M13" s="23"/>
       <c r="N13" s="23"/>
       <c r="O13" s="8"/>
     </row>
-    <row r="14" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="13" t="s">
         <v>159</v>
       </c>
@@ -3624,25 +3630,25 @@
       <c r="D14" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="E14" s="172"/>
+      <c r="E14" s="239"/>
       <c r="F14" s="9" t="s">
         <v>241</v>
       </c>
       <c r="G14" s="116">
         <v>1.98286381240384E-3</v>
       </c>
-      <c r="H14" s="208"/>
+      <c r="H14" s="199"/>
       <c r="I14" s="153" t="s">
         <v>240</v>
       </c>
-      <c r="J14" s="180"/>
-      <c r="K14" s="180"/>
+      <c r="J14" s="201"/>
+      <c r="K14" s="201"/>
       <c r="L14" s="11"/>
       <c r="M14" s="23"/>
       <c r="N14" s="23"/>
       <c r="O14" s="8"/>
     </row>
-    <row r="15" spans="1:16" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="57" t="s">
         <v>169</v>
       </c>
@@ -3651,7 +3657,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="56"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="222"/>
+      <c r="G15" s="171"/>
       <c r="H15" s="10"/>
       <c r="I15" s="73"/>
       <c r="J15" s="77"/>
@@ -3661,7 +3667,7 @@
       <c r="N15" s="62"/>
       <c r="O15" s="63"/>
     </row>
-    <row r="16" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="18" t="s">
         <v>183</v>
       </c>
@@ -3669,7 +3675,7 @@
       <c r="C16" s="142"/>
       <c r="D16" s="4"/>
       <c r="F16" s="89"/>
-      <c r="G16" s="223"/>
+      <c r="G16" s="172"/>
       <c r="H16" s="145" t="s">
         <v>167</v>
       </c>
@@ -3687,7 +3693,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="24" t="s">
         <v>99</v>
       </c>
@@ -3703,35 +3709,35 @@
       <c r="F17" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="G17" s="224">
+      <c r="G17" s="173">
         <v>0</v>
       </c>
-      <c r="H17" s="179" t="s">
+      <c r="H17" s="203" t="s">
         <v>164</v>
       </c>
-      <c r="I17" s="244" t="s">
-        <v>240</v>
-      </c>
-      <c r="J17" s="180" t="s">
+      <c r="I17" s="229" t="s">
+        <v>240</v>
+      </c>
+      <c r="J17" s="201" t="s">
         <v>331</v>
       </c>
-      <c r="K17" s="182" t="s">
+      <c r="K17" s="231" t="s">
         <v>207</v>
       </c>
       <c r="L17" s="25"/>
-      <c r="M17" s="181">
+      <c r="M17" s="230">
         <f t="shared" ref="M17" si="0">100*(180)/(14886+445+180)</f>
         <v>1.1604667655212431</v>
       </c>
-      <c r="N17" s="181">
+      <c r="N17" s="230">
         <f t="shared" ref="N17" si="1">100*(180+445)/(14886+445+180)</f>
         <v>4.0293984913932048</v>
       </c>
-      <c r="O17" s="180" t="s">
+      <c r="O17" s="201" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="109" t="s">
         <v>99</v>
       </c>
@@ -3747,19 +3753,19 @@
       <c r="F18" s="89" t="s">
         <v>250</v>
       </c>
-      <c r="G18" s="225">
+      <c r="G18" s="174">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="H18" s="179"/>
-      <c r="I18" s="244"/>
-      <c r="J18" s="180"/>
-      <c r="K18" s="182"/>
+      <c r="H18" s="203"/>
+      <c r="I18" s="229"/>
+      <c r="J18" s="201"/>
+      <c r="K18" s="231"/>
       <c r="L18" s="114"/>
-      <c r="M18" s="181"/>
-      <c r="N18" s="181"/>
-      <c r="O18" s="180"/>
-    </row>
-    <row r="19" spans="1:15" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="230"/>
+      <c r="N18" s="230"/>
+      <c r="O18" s="201"/>
+    </row>
+    <row r="19" spans="1:15" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="109" t="s">
         <v>99</v>
       </c>
@@ -3775,19 +3781,19 @@
       <c r="F19" s="89" t="s">
         <v>250</v>
       </c>
-      <c r="G19" s="225">
+      <c r="G19" s="174">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H19" s="179"/>
-      <c r="I19" s="244"/>
-      <c r="J19" s="180"/>
-      <c r="K19" s="182"/>
+      <c r="H19" s="203"/>
+      <c r="I19" s="229"/>
+      <c r="J19" s="201"/>
+      <c r="K19" s="231"/>
       <c r="L19" s="114"/>
-      <c r="M19" s="181"/>
-      <c r="N19" s="181"/>
-      <c r="O19" s="180"/>
-    </row>
-    <row r="20" spans="1:15" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="230"/>
+      <c r="N19" s="230"/>
+      <c r="O19" s="201"/>
+    </row>
+    <row r="20" spans="1:15" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="109" t="s">
         <v>99</v>
       </c>
@@ -3803,19 +3809,19 @@
       <c r="F20" s="89" t="s">
         <v>250</v>
       </c>
-      <c r="G20" s="225">
+      <c r="G20" s="174">
         <v>2.1899999999999999E-2</v>
       </c>
-      <c r="H20" s="179"/>
-      <c r="I20" s="244"/>
-      <c r="J20" s="180"/>
-      <c r="K20" s="182"/>
+      <c r="H20" s="203"/>
+      <c r="I20" s="229"/>
+      <c r="J20" s="201"/>
+      <c r="K20" s="231"/>
       <c r="L20" s="114"/>
-      <c r="M20" s="181"/>
-      <c r="N20" s="181"/>
-      <c r="O20" s="180"/>
-    </row>
-    <row r="21" spans="1:15" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="230"/>
+      <c r="N20" s="230"/>
+      <c r="O20" s="201"/>
+    </row>
+    <row r="21" spans="1:15" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="109" t="s">
         <v>99</v>
       </c>
@@ -3831,19 +3837,19 @@
       <c r="F21" s="89" t="s">
         <v>250</v>
       </c>
-      <c r="G21" s="225">
+      <c r="G21" s="174">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="H21" s="179"/>
-      <c r="I21" s="244"/>
-      <c r="J21" s="180"/>
-      <c r="K21" s="182"/>
+      <c r="H21" s="203"/>
+      <c r="I21" s="229"/>
+      <c r="J21" s="201"/>
+      <c r="K21" s="231"/>
       <c r="L21" s="114"/>
-      <c r="M21" s="181"/>
-      <c r="N21" s="181"/>
-      <c r="O21" s="180"/>
-    </row>
-    <row r="22" spans="1:15" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="230"/>
+      <c r="N21" s="230"/>
+      <c r="O21" s="201"/>
+    </row>
+    <row r="22" spans="1:15" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="109" t="s">
         <v>99</v>
       </c>
@@ -3859,19 +3865,19 @@
       <c r="F22" s="89" t="s">
         <v>250</v>
       </c>
-      <c r="G22" s="225">
+      <c r="G22" s="174">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H22" s="179"/>
-      <c r="I22" s="244"/>
-      <c r="J22" s="180"/>
-      <c r="K22" s="182"/>
+      <c r="H22" s="203"/>
+      <c r="I22" s="229"/>
+      <c r="J22" s="201"/>
+      <c r="K22" s="231"/>
       <c r="L22" s="114"/>
-      <c r="M22" s="181"/>
-      <c r="N22" s="181"/>
-      <c r="O22" s="180"/>
-    </row>
-    <row r="23" spans="1:15" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="230"/>
+      <c r="N22" s="230"/>
+      <c r="O22" s="201"/>
+    </row>
+    <row r="23" spans="1:15" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="57" t="s">
         <v>1</v>
       </c>
@@ -3879,11 +3885,11 @@
       <c r="C23" s="138"/>
       <c r="E23" s="56"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="226"/>
+      <c r="G23" s="175"/>
       <c r="H23" s="61"/>
       <c r="I23" s="73"/>
     </row>
-    <row r="24" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="15" t="s">
         <v>162</v>
       </c>
@@ -3904,7 +3910,7 @@
         <v>15</v>
       </c>
       <c r="H24" s="143"/>
-      <c r="I24" s="245" t="s">
+      <c r="I24" s="193" t="s">
         <v>240</v>
       </c>
       <c r="J24" s="50">
@@ -3916,7 +3922,7 @@
       <c r="N24" s="22"/>
       <c r="O24" s="46"/>
     </row>
-    <row r="25" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="14" t="s">
         <v>332</v>
       </c>
@@ -3929,7 +3935,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="147"/>
       <c r="H25" s="151"/>
-      <c r="I25" s="245" t="s">
+      <c r="I25" s="193" t="s">
         <v>240</v>
       </c>
       <c r="J25" s="50"/>
@@ -3938,7 +3944,7 @@
       <c r="N25" s="22"/>
       <c r="O25" s="21"/>
     </row>
-    <row r="26" spans="1:15" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="27" t="s">
         <v>295</v>
       </c>
@@ -3951,26 +3957,26 @@
       <c r="D26" s="53" t="s">
         <v>398</v>
       </c>
-      <c r="E26" s="168" t="s">
+      <c r="E26" s="235" t="s">
         <v>300</v>
       </c>
       <c r="F26" s="53" t="s">
         <v>297</v>
       </c>
-      <c r="G26" s="227">
+      <c r="G26" s="176">
         <v>77.900000000000006</v>
       </c>
       <c r="H26" s="115" t="s">
         <v>335</v>
       </c>
-      <c r="I26" s="245" t="s">
+      <c r="I26" s="193" t="s">
         <v>240</v>
       </c>
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
     </row>
-    <row r="27" spans="1:15" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="27" t="s">
         <v>295</v>
       </c>
@@ -3983,24 +3989,24 @@
       <c r="D27" s="53" t="s">
         <v>399</v>
       </c>
-      <c r="E27" s="168"/>
+      <c r="E27" s="235"/>
       <c r="F27" s="53" t="s">
         <v>297</v>
       </c>
-      <c r="G27" s="227">
+      <c r="G27" s="176">
         <v>72.099999999999994</v>
       </c>
       <c r="H27" s="115" t="s">
         <v>335</v>
       </c>
-      <c r="I27" s="245" t="s">
+      <c r="I27" s="193" t="s">
         <v>240</v>
       </c>
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27"/>
     </row>
-    <row r="28" spans="1:15" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="27" t="s">
         <v>295</v>
       </c>
@@ -4013,24 +4019,24 @@
       <c r="D28" s="53" t="s">
         <v>406</v>
       </c>
-      <c r="E28" s="168"/>
+      <c r="E28" s="235"/>
       <c r="F28" s="53" t="s">
         <v>297</v>
       </c>
-      <c r="G28" s="227">
+      <c r="G28" s="176">
         <v>79.8</v>
       </c>
       <c r="H28" s="115" t="s">
         <v>335</v>
       </c>
-      <c r="I28" s="245" t="s">
+      <c r="I28" s="193" t="s">
         <v>240</v>
       </c>
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
     </row>
-    <row r="29" spans="1:15" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="27" t="s">
         <v>295</v>
       </c>
@@ -4043,24 +4049,24 @@
       <c r="D29" s="53" t="s">
         <v>403</v>
       </c>
-      <c r="E29" s="168"/>
+      <c r="E29" s="235"/>
       <c r="F29" s="53" t="s">
         <v>297</v>
       </c>
-      <c r="G29" s="227">
+      <c r="G29" s="176">
         <v>84.3</v>
       </c>
       <c r="H29" s="115" t="s">
         <v>335</v>
       </c>
-      <c r="I29" s="245" t="s">
+      <c r="I29" s="193" t="s">
         <v>240</v>
       </c>
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
     </row>
-    <row r="30" spans="1:15" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="27" t="s">
         <v>295</v>
       </c>
@@ -4073,24 +4079,24 @@
       <c r="D30" s="53" t="s">
         <v>400</v>
       </c>
-      <c r="E30" s="168"/>
+      <c r="E30" s="235"/>
       <c r="F30" s="53" t="s">
         <v>297</v>
       </c>
-      <c r="G30" s="227">
+      <c r="G30" s="176">
         <v>79.8</v>
       </c>
       <c r="H30" s="115" t="s">
         <v>335</v>
       </c>
-      <c r="I30" s="245" t="s">
+      <c r="I30" s="193" t="s">
         <v>240</v>
       </c>
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
     </row>
-    <row r="31" spans="1:15" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="27" t="s">
         <v>295</v>
       </c>
@@ -4103,24 +4109,24 @@
       <c r="D31" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="E31" s="168"/>
+      <c r="E31" s="235"/>
       <c r="F31" s="53" t="s">
         <v>297</v>
       </c>
-      <c r="G31" s="227">
+      <c r="G31" s="176">
         <v>86.1</v>
       </c>
       <c r="H31" s="115" t="s">
         <v>335</v>
       </c>
-      <c r="I31" s="245" t="s">
+      <c r="I31" s="193" t="s">
         <v>240</v>
       </c>
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
     </row>
-    <row r="32" spans="1:15" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="27" t="s">
         <v>295</v>
       </c>
@@ -4133,24 +4139,24 @@
       <c r="D32" s="53" t="s">
         <v>407</v>
       </c>
-      <c r="E32" s="168"/>
+      <c r="E32" s="235"/>
       <c r="F32" s="53" t="s">
         <v>297</v>
       </c>
-      <c r="G32" s="227">
+      <c r="G32" s="176">
         <v>74.599999999999994</v>
       </c>
       <c r="H32" s="115" t="s">
         <v>335</v>
       </c>
-      <c r="I32" s="245" t="s">
+      <c r="I32" s="193" t="s">
         <v>240</v>
       </c>
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32"/>
     </row>
-    <row r="33" spans="1:15" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="27" t="s">
         <v>295</v>
       </c>
@@ -4163,24 +4169,24 @@
       <c r="D33" s="53" t="s">
         <v>404</v>
       </c>
-      <c r="E33" s="168"/>
+      <c r="E33" s="235"/>
       <c r="F33" s="53" t="s">
         <v>297</v>
       </c>
-      <c r="G33" s="227">
+      <c r="G33" s="176">
         <v>74.2</v>
       </c>
       <c r="H33" s="115" t="s">
         <v>335</v>
       </c>
-      <c r="I33" s="245" t="s">
+      <c r="I33" s="193" t="s">
         <v>240</v>
       </c>
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33"/>
     </row>
-    <row r="34" spans="1:15" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="88" t="s">
         <v>295</v>
       </c>
@@ -4193,24 +4199,24 @@
       <c r="D34" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="E34" s="168"/>
+      <c r="E34" s="235"/>
       <c r="F34" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="G34" s="228">
+      <c r="G34" s="177">
         <v>78.8</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="I34" s="246" t="s">
+      <c r="I34" s="194" t="s">
         <v>240</v>
       </c>
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34"/>
     </row>
-    <row r="35" spans="1:15" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="88" t="s">
         <v>295</v>
       </c>
@@ -4223,24 +4229,24 @@
       <c r="D35" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="E35" s="168"/>
+      <c r="E35" s="235"/>
       <c r="F35" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="G35" s="228">
+      <c r="G35" s="177">
         <v>73.8</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="I35" s="246" t="s">
+      <c r="I35" s="194" t="s">
         <v>240</v>
       </c>
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
     </row>
-    <row r="36" spans="1:15" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="88" t="s">
         <v>295</v>
       </c>
@@ -4253,24 +4259,24 @@
       <c r="D36" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="E36" s="168"/>
+      <c r="E36" s="235"/>
       <c r="F36" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="G36" s="228">
+      <c r="G36" s="177">
         <v>73.8</v>
       </c>
       <c r="H36" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="I36" s="246" t="s">
+      <c r="I36" s="194" t="s">
         <v>240</v>
       </c>
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36"/>
     </row>
-    <row r="37" spans="1:15" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="27" t="s">
         <v>294</v>
       </c>
@@ -4283,7 +4289,7 @@
       <c r="D37" s="53" t="s">
         <v>284</v>
       </c>
-      <c r="E37" s="168"/>
+      <c r="E37" s="235"/>
       <c r="F37" s="53" t="s">
         <v>298</v>
       </c>
@@ -4293,14 +4299,14 @@
       <c r="H37" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="I37" s="245" t="s">
+      <c r="I37" s="193" t="s">
         <v>240</v>
       </c>
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
     </row>
-    <row r="38" spans="1:15" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="27" t="s">
         <v>294</v>
       </c>
@@ -4313,7 +4319,7 @@
       <c r="D38" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="E38" s="168"/>
+      <c r="E38" s="235"/>
       <c r="F38" s="53" t="s">
         <v>298</v>
       </c>
@@ -4323,14 +4329,14 @@
       <c r="H38" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="I38" s="245" t="s">
+      <c r="I38" s="193" t="s">
         <v>240</v>
       </c>
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38"/>
     </row>
-    <row r="39" spans="1:15" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="27" t="s">
         <v>294</v>
       </c>
@@ -4343,7 +4349,7 @@
       <c r="D39" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="E39" s="168"/>
+      <c r="E39" s="235"/>
       <c r="F39" s="53" t="s">
         <v>298</v>
       </c>
@@ -4353,14 +4359,14 @@
       <c r="H39" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="I39" s="245" t="s">
+      <c r="I39" s="193" t="s">
         <v>240</v>
       </c>
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
     </row>
-    <row r="40" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="27" t="s">
         <v>294</v>
       </c>
@@ -4373,7 +4379,7 @@
       <c r="D40" s="53" t="s">
         <v>287</v>
       </c>
-      <c r="E40" s="168"/>
+      <c r="E40" s="235"/>
       <c r="F40" s="53" t="s">
         <v>298</v>
       </c>
@@ -4383,14 +4389,14 @@
       <c r="H40" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="I40" s="245" t="s">
+      <c r="I40" s="193" t="s">
         <v>240</v>
       </c>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
     </row>
-    <row r="41" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A41" s="27" t="s">
         <v>294</v>
       </c>
@@ -4403,7 +4409,7 @@
       <c r="D41" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="E41" s="168"/>
+      <c r="E41" s="235"/>
       <c r="F41" s="53" t="s">
         <v>298</v>
       </c>
@@ -4413,14 +4419,14 @@
       <c r="H41" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="I41" s="245" t="s">
+      <c r="I41" s="193" t="s">
         <v>240</v>
       </c>
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41"/>
     </row>
-    <row r="42" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="27" t="s">
         <v>294</v>
       </c>
@@ -4433,7 +4439,7 @@
       <c r="D42" s="53" t="s">
         <v>289</v>
       </c>
-      <c r="E42" s="168"/>
+      <c r="E42" s="235"/>
       <c r="F42" s="53" t="s">
         <v>298</v>
       </c>
@@ -4443,14 +4449,14 @@
       <c r="H42" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="I42" s="245" t="s">
+      <c r="I42" s="193" t="s">
         <v>240</v>
       </c>
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
     </row>
-    <row r="43" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="27" t="s">
         <v>294</v>
       </c>
@@ -4463,7 +4469,7 @@
       <c r="D43" s="53" t="s">
         <v>290</v>
       </c>
-      <c r="E43" s="168"/>
+      <c r="E43" s="235"/>
       <c r="F43" s="53" t="s">
         <v>298</v>
       </c>
@@ -4473,14 +4479,14 @@
       <c r="H43" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="I43" s="245" t="s">
+      <c r="I43" s="193" t="s">
         <v>240</v>
       </c>
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43"/>
     </row>
-    <row r="44" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="27" t="s">
         <v>294</v>
       </c>
@@ -4493,7 +4499,7 @@
       <c r="D44" s="53" t="s">
         <v>291</v>
       </c>
-      <c r="E44" s="168"/>
+      <c r="E44" s="235"/>
       <c r="F44" s="53" t="s">
         <v>298</v>
       </c>
@@ -4503,14 +4509,14 @@
       <c r="H44" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="I44" s="245" t="s">
+      <c r="I44" s="193" t="s">
         <v>240</v>
       </c>
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44"/>
     </row>
-    <row r="45" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45" s="27" t="s">
         <v>294</v>
       </c>
@@ -4523,7 +4529,7 @@
       <c r="D45" s="53" t="s">
         <v>292</v>
       </c>
-      <c r="E45" s="168"/>
+      <c r="E45" s="235"/>
       <c r="F45" s="53" t="s">
         <v>298</v>
       </c>
@@ -4533,14 +4539,14 @@
       <c r="H45" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="I45" s="245" t="s">
+      <c r="I45" s="193" t="s">
         <v>240</v>
       </c>
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45"/>
     </row>
-    <row r="46" spans="1:15" s="53" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" s="53" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="27" t="s">
         <v>294</v>
       </c>
@@ -4553,7 +4559,7 @@
       <c r="D46" s="53" t="s">
         <v>293</v>
       </c>
-      <c r="E46" s="168"/>
+      <c r="E46" s="235"/>
       <c r="F46" s="53" t="s">
         <v>298</v>
       </c>
@@ -4563,14 +4569,14 @@
       <c r="H46" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="I46" s="245" t="s">
+      <c r="I46" s="193" t="s">
         <v>240</v>
       </c>
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46"/>
     </row>
-    <row r="47" spans="1:15" s="53" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" s="53" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A47" s="15" t="s">
         <v>333</v>
       </c>
@@ -4583,17 +4589,17 @@
       <c r="D47" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="E47" s="169"/>
+      <c r="E47" s="236"/>
       <c r="F47" s="53" t="s">
         <v>299</v>
       </c>
-      <c r="G47" s="229" t="s">
+      <c r="G47" s="178" t="s">
         <v>334</v>
       </c>
       <c r="H47" s="115" t="s">
         <v>302</v>
       </c>
-      <c r="I47" s="245" t="s">
+      <c r="I47" s="193" t="s">
         <v>240</v>
       </c>
       <c r="J47" s="53" t="s">
@@ -4609,7 +4615,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="15" t="s">
         <v>339</v>
       </c>
@@ -4620,39 +4626,39 @@
       <c r="D48" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E48" s="165" t="s">
+      <c r="E48" s="232" t="s">
         <v>414</v>
       </c>
-      <c r="F48" s="210" t="s">
+      <c r="F48" s="206" t="s">
         <v>413</v>
       </c>
-      <c r="G48" s="221">
+      <c r="G48" s="170">
         <v>0.23310023310023309</v>
       </c>
-      <c r="H48" s="204" t="s">
+      <c r="H48" s="216" t="s">
         <v>167</v>
       </c>
-      <c r="I48" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J48" s="180" t="s">
+      <c r="I48" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J48" s="201" t="s">
         <v>209</v>
       </c>
-      <c r="K48" s="193">
+      <c r="K48" s="217">
         <v>51</v>
       </c>
       <c r="L48" s="111" t="s">
         <v>203</v>
       </c>
-      <c r="M48" s="205" t="s">
+      <c r="M48" s="207" t="s">
         <v>230</v>
       </c>
-      <c r="N48" s="205" t="s">
+      <c r="N48" s="207" t="s">
         <v>208</v>
       </c>
       <c r="O48" s="49"/>
     </row>
-    <row r="49" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="14"/>
       <c r="B49" s="142"/>
       <c r="C49" s="134" t="s">
@@ -4661,23 +4667,23 @@
       <c r="D49" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E49" s="166"/>
-      <c r="F49" s="210"/>
-      <c r="G49" s="221">
+      <c r="E49" s="233"/>
+      <c r="F49" s="206"/>
+      <c r="G49" s="170">
         <v>0.23310023310023309</v>
       </c>
-      <c r="H49" s="204"/>
-      <c r="I49" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J49" s="180"/>
-      <c r="K49" s="193"/>
+      <c r="H49" s="216"/>
+      <c r="I49" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J49" s="201"/>
+      <c r="K49" s="217"/>
       <c r="L49" s="111"/>
-      <c r="M49" s="205"/>
-      <c r="N49" s="205"/>
+      <c r="M49" s="207"/>
+      <c r="N49" s="207"/>
       <c r="O49" s="49"/>
     </row>
-    <row r="50" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="14"/>
       <c r="B50" s="142"/>
       <c r="C50" s="134" t="s">
@@ -4686,23 +4692,23 @@
       <c r="D50" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E50" s="166"/>
-      <c r="F50" s="210"/>
-      <c r="G50" s="221">
+      <c r="E50" s="233"/>
+      <c r="F50" s="206"/>
+      <c r="G50" s="170">
         <v>0.23310023310023309</v>
       </c>
-      <c r="H50" s="204"/>
-      <c r="I50" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J50" s="180"/>
-      <c r="K50" s="193"/>
+      <c r="H50" s="216"/>
+      <c r="I50" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J50" s="201"/>
+      <c r="K50" s="217"/>
       <c r="L50" s="111"/>
-      <c r="M50" s="205"/>
-      <c r="N50" s="205"/>
+      <c r="M50" s="207"/>
+      <c r="N50" s="207"/>
       <c r="O50" s="49"/>
     </row>
-    <row r="51" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="14"/>
       <c r="B51" s="142"/>
       <c r="C51" s="134" t="s">
@@ -4711,23 +4717,23 @@
       <c r="D51" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E51" s="166"/>
-      <c r="F51" s="210"/>
-      <c r="G51" s="221">
+      <c r="E51" s="233"/>
+      <c r="F51" s="206"/>
+      <c r="G51" s="170">
         <v>0.23310023310023309</v>
       </c>
-      <c r="H51" s="204"/>
-      <c r="I51" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J51" s="180"/>
-      <c r="K51" s="193"/>
+      <c r="H51" s="216"/>
+      <c r="I51" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J51" s="201"/>
+      <c r="K51" s="217"/>
       <c r="L51" s="111"/>
-      <c r="M51" s="205"/>
-      <c r="N51" s="205"/>
+      <c r="M51" s="207"/>
+      <c r="N51" s="207"/>
       <c r="O51" s="49"/>
     </row>
-    <row r="52" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="14"/>
       <c r="B52" s="142"/>
       <c r="C52" s="134" t="s">
@@ -4736,23 +4742,23 @@
       <c r="D52" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E52" s="166"/>
-      <c r="F52" s="210"/>
-      <c r="G52" s="221">
+      <c r="E52" s="233"/>
+      <c r="F52" s="206"/>
+      <c r="G52" s="170">
         <v>0.23310023310023309</v>
       </c>
-      <c r="H52" s="204"/>
-      <c r="I52" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J52" s="180"/>
-      <c r="K52" s="193"/>
+      <c r="H52" s="216"/>
+      <c r="I52" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J52" s="201"/>
+      <c r="K52" s="217"/>
       <c r="L52" s="111"/>
-      <c r="M52" s="205"/>
-      <c r="N52" s="205"/>
+      <c r="M52" s="207"/>
+      <c r="N52" s="207"/>
       <c r="O52" s="49"/>
     </row>
-    <row r="53" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="14"/>
       <c r="B53" s="142"/>
       <c r="C53" s="134" t="s">
@@ -4761,23 +4767,23 @@
       <c r="D53" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E53" s="166"/>
-      <c r="F53" s="210"/>
-      <c r="G53" s="221">
+      <c r="E53" s="233"/>
+      <c r="F53" s="206"/>
+      <c r="G53" s="170">
         <v>0.23310023310023309</v>
       </c>
-      <c r="H53" s="204"/>
-      <c r="I53" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J53" s="180"/>
-      <c r="K53" s="193"/>
+      <c r="H53" s="216"/>
+      <c r="I53" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J53" s="201"/>
+      <c r="K53" s="217"/>
       <c r="L53" s="111"/>
-      <c r="M53" s="205"/>
-      <c r="N53" s="205"/>
+      <c r="M53" s="207"/>
+      <c r="N53" s="207"/>
       <c r="O53" s="49"/>
     </row>
-    <row r="54" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="14"/>
       <c r="B54" s="142"/>
       <c r="C54" s="134" t="s">
@@ -4786,23 +4792,23 @@
       <c r="D54" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E54" s="166"/>
-      <c r="F54" s="210"/>
-      <c r="G54" s="221">
+      <c r="E54" s="233"/>
+      <c r="F54" s="206"/>
+      <c r="G54" s="170">
         <v>0.23310023310023309</v>
       </c>
-      <c r="H54" s="204"/>
-      <c r="I54" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J54" s="180"/>
-      <c r="K54" s="193"/>
+      <c r="H54" s="216"/>
+      <c r="I54" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J54" s="201"/>
+      <c r="K54" s="217"/>
       <c r="L54" s="111"/>
-      <c r="M54" s="205"/>
-      <c r="N54" s="205"/>
+      <c r="M54" s="207"/>
+      <c r="N54" s="207"/>
       <c r="O54" s="49"/>
     </row>
-    <row r="55" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="14"/>
       <c r="B55" s="142"/>
       <c r="C55" s="134" t="s">
@@ -4811,23 +4817,23 @@
       <c r="D55" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E55" s="166"/>
-      <c r="F55" s="210"/>
-      <c r="G55" s="221">
+      <c r="E55" s="233"/>
+      <c r="F55" s="206"/>
+      <c r="G55" s="170">
         <v>0.23310023310023309</v>
       </c>
-      <c r="H55" s="204"/>
-      <c r="I55" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J55" s="180"/>
-      <c r="K55" s="193"/>
+      <c r="H55" s="216"/>
+      <c r="I55" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J55" s="201"/>
+      <c r="K55" s="217"/>
       <c r="L55" s="111"/>
-      <c r="M55" s="205"/>
-      <c r="N55" s="205"/>
+      <c r="M55" s="207"/>
+      <c r="N55" s="207"/>
       <c r="O55" s="49"/>
     </row>
-    <row r="56" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="14"/>
       <c r="B56" s="142"/>
       <c r="C56" s="134" t="s">
@@ -4836,23 +4842,23 @@
       <c r="D56" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E56" s="166"/>
-      <c r="F56" s="210"/>
-      <c r="G56" s="221">
+      <c r="E56" s="233"/>
+      <c r="F56" s="206"/>
+      <c r="G56" s="170">
         <v>0.23310023310023309</v>
       </c>
-      <c r="H56" s="204"/>
-      <c r="I56" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J56" s="180"/>
-      <c r="K56" s="193"/>
+      <c r="H56" s="216"/>
+      <c r="I56" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J56" s="201"/>
+      <c r="K56" s="217"/>
       <c r="L56" s="111"/>
-      <c r="M56" s="205"/>
-      <c r="N56" s="205"/>
+      <c r="M56" s="207"/>
+      <c r="N56" s="207"/>
       <c r="O56" s="49"/>
     </row>
-    <row r="57" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="14"/>
       <c r="B57" s="142"/>
       <c r="C57" s="134" t="s">
@@ -4861,23 +4867,23 @@
       <c r="D57" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E57" s="166"/>
-      <c r="F57" s="210"/>
-      <c r="G57" s="221">
+      <c r="E57" s="233"/>
+      <c r="F57" s="206"/>
+      <c r="G57" s="170">
         <v>0.23310023310023309</v>
       </c>
-      <c r="H57" s="204"/>
-      <c r="I57" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J57" s="180"/>
-      <c r="K57" s="193"/>
+      <c r="H57" s="216"/>
+      <c r="I57" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J57" s="201"/>
+      <c r="K57" s="217"/>
       <c r="L57" s="111"/>
-      <c r="M57" s="205"/>
-      <c r="N57" s="205"/>
+      <c r="M57" s="207"/>
+      <c r="N57" s="207"/>
       <c r="O57" s="49"/>
     </row>
-    <row r="58" spans="1:15" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="109"/>
       <c r="B58" s="142" t="s">
         <v>471</v>
@@ -4888,27 +4894,27 @@
       <c r="D58" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="E58" s="166"/>
-      <c r="F58" s="196" t="s">
+      <c r="E58" s="233"/>
+      <c r="F58" s="205" t="s">
         <v>271</v>
       </c>
-      <c r="G58" s="230">
+      <c r="G58" s="179">
         <v>0.23310023310023309</v>
       </c>
-      <c r="H58" s="204"/>
-      <c r="I58" s="247" t="s">
-        <v>240</v>
-      </c>
-      <c r="J58" s="180"/>
-      <c r="K58" s="193"/>
+      <c r="H58" s="216"/>
+      <c r="I58" s="195" t="s">
+        <v>240</v>
+      </c>
+      <c r="J58" s="201"/>
+      <c r="K58" s="217"/>
       <c r="L58" s="155"/>
-      <c r="M58" s="205"/>
-      <c r="N58" s="205"/>
-      <c r="O58" s="207" t="s">
+      <c r="M58" s="207"/>
+      <c r="N58" s="207"/>
+      <c r="O58" s="209" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="59" spans="1:15" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="109"/>
       <c r="B59" s="142" t="s">
         <v>471</v>
@@ -4919,23 +4925,23 @@
       <c r="D59" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="E59" s="166"/>
-      <c r="F59" s="196"/>
-      <c r="G59" s="230">
+      <c r="E59" s="233"/>
+      <c r="F59" s="205"/>
+      <c r="G59" s="179">
         <v>0.23310023310023309</v>
       </c>
-      <c r="H59" s="204"/>
-      <c r="I59" s="247" t="s">
-        <v>240</v>
-      </c>
-      <c r="J59" s="180"/>
-      <c r="K59" s="193"/>
+      <c r="H59" s="216"/>
+      <c r="I59" s="195" t="s">
+        <v>240</v>
+      </c>
+      <c r="J59" s="201"/>
+      <c r="K59" s="217"/>
       <c r="L59" s="155"/>
-      <c r="M59" s="205"/>
-      <c r="N59" s="205"/>
-      <c r="O59" s="207"/>
-    </row>
-    <row r="60" spans="1:15" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M59" s="207"/>
+      <c r="N59" s="207"/>
+      <c r="O59" s="209"/>
+    </row>
+    <row r="60" spans="1:15" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="109"/>
       <c r="B60" s="142" t="s">
         <v>471</v>
@@ -4946,23 +4952,23 @@
       <c r="D60" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="E60" s="166"/>
-      <c r="F60" s="196"/>
-      <c r="G60" s="230">
+      <c r="E60" s="233"/>
+      <c r="F60" s="205"/>
+      <c r="G60" s="179">
         <v>0.23310023310023309</v>
       </c>
-      <c r="H60" s="204"/>
-      <c r="I60" s="247" t="s">
-        <v>240</v>
-      </c>
-      <c r="J60" s="180"/>
-      <c r="K60" s="193"/>
+      <c r="H60" s="216"/>
+      <c r="I60" s="195" t="s">
+        <v>240</v>
+      </c>
+      <c r="J60" s="201"/>
+      <c r="K60" s="217"/>
       <c r="L60" s="155"/>
-      <c r="M60" s="205"/>
-      <c r="N60" s="205"/>
-      <c r="O60" s="207"/>
-    </row>
-    <row r="61" spans="1:15" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M60" s="207"/>
+      <c r="N60" s="207"/>
+      <c r="O60" s="209"/>
+    </row>
+    <row r="61" spans="1:15" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="109"/>
       <c r="B61" s="142" t="s">
         <v>471</v>
@@ -4973,23 +4979,23 @@
       <c r="D61" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="E61" s="166"/>
-      <c r="F61" s="196"/>
-      <c r="G61" s="230">
+      <c r="E61" s="233"/>
+      <c r="F61" s="205"/>
+      <c r="G61" s="179">
         <v>0.23310023310023309</v>
       </c>
-      <c r="H61" s="204"/>
-      <c r="I61" s="247" t="s">
-        <v>240</v>
-      </c>
-      <c r="J61" s="180"/>
-      <c r="K61" s="193"/>
+      <c r="H61" s="216"/>
+      <c r="I61" s="195" t="s">
+        <v>240</v>
+      </c>
+      <c r="J61" s="201"/>
+      <c r="K61" s="217"/>
       <c r="L61" s="155"/>
-      <c r="M61" s="205"/>
-      <c r="N61" s="205"/>
-      <c r="O61" s="207"/>
-    </row>
-    <row r="62" spans="1:15" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M61" s="207"/>
+      <c r="N61" s="207"/>
+      <c r="O61" s="209"/>
+    </row>
+    <row r="62" spans="1:15" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="109"/>
       <c r="B62" s="142" t="s">
         <v>471</v>
@@ -5000,23 +5006,23 @@
       <c r="D62" s="110" t="s">
         <v>93</v>
       </c>
-      <c r="E62" s="166"/>
-      <c r="F62" s="196"/>
-      <c r="G62" s="230">
+      <c r="E62" s="233"/>
+      <c r="F62" s="205"/>
+      <c r="G62" s="179">
         <v>0.23310023310023309</v>
       </c>
-      <c r="H62" s="204"/>
-      <c r="I62" s="247" t="s">
-        <v>240</v>
-      </c>
-      <c r="J62" s="180"/>
-      <c r="K62" s="193"/>
+      <c r="H62" s="216"/>
+      <c r="I62" s="195" t="s">
+        <v>240</v>
+      </c>
+      <c r="J62" s="201"/>
+      <c r="K62" s="217"/>
       <c r="L62" s="155"/>
-      <c r="M62" s="205"/>
-      <c r="N62" s="205"/>
-      <c r="O62" s="207"/>
-    </row>
-    <row r="63" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M62" s="207"/>
+      <c r="N62" s="207"/>
+      <c r="O62" s="209"/>
+    </row>
+    <row r="63" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="14"/>
       <c r="B63" s="142"/>
       <c r="C63" s="134" t="s">
@@ -5025,25 +5031,25 @@
       <c r="D63" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E63" s="166"/>
-      <c r="F63" s="196" t="s">
+      <c r="E63" s="233"/>
+      <c r="F63" s="205" t="s">
         <v>209</v>
       </c>
-      <c r="G63" s="221">
+      <c r="G63" s="170">
         <v>0.23310023310023309</v>
       </c>
-      <c r="H63" s="204"/>
-      <c r="I63" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J63" s="180"/>
-      <c r="K63" s="193"/>
+      <c r="H63" s="216"/>
+      <c r="I63" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J63" s="201"/>
+      <c r="K63" s="217"/>
       <c r="L63" s="111"/>
-      <c r="M63" s="205"/>
-      <c r="N63" s="205"/>
+      <c r="M63" s="207"/>
+      <c r="N63" s="207"/>
       <c r="O63" s="49"/>
     </row>
-    <row r="64" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="14"/>
       <c r="B64" s="142"/>
       <c r="C64" s="134" t="s">
@@ -5052,23 +5058,23 @@
       <c r="D64" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E64" s="166"/>
-      <c r="F64" s="196"/>
-      <c r="G64" s="221">
+      <c r="E64" s="233"/>
+      <c r="F64" s="205"/>
+      <c r="G64" s="170">
         <v>0.23310023310023309</v>
       </c>
-      <c r="H64" s="204"/>
-      <c r="I64" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J64" s="180"/>
-      <c r="K64" s="193"/>
+      <c r="H64" s="216"/>
+      <c r="I64" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J64" s="201"/>
+      <c r="K64" s="217"/>
       <c r="L64" s="111"/>
-      <c r="M64" s="205"/>
-      <c r="N64" s="205"/>
+      <c r="M64" s="207"/>
+      <c r="N64" s="207"/>
       <c r="O64" s="49"/>
     </row>
-    <row r="65" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="14"/>
       <c r="B65" s="142"/>
       <c r="C65" s="134" t="s">
@@ -5077,23 +5083,23 @@
       <c r="D65" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E65" s="166"/>
-      <c r="F65" s="196"/>
-      <c r="G65" s="221">
+      <c r="E65" s="233"/>
+      <c r="F65" s="205"/>
+      <c r="G65" s="170">
         <v>0.23310023310023309</v>
       </c>
-      <c r="H65" s="204"/>
-      <c r="I65" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J65" s="180"/>
-      <c r="K65" s="193"/>
+      <c r="H65" s="216"/>
+      <c r="I65" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J65" s="201"/>
+      <c r="K65" s="217"/>
       <c r="L65" s="111"/>
-      <c r="M65" s="205"/>
-      <c r="N65" s="205"/>
+      <c r="M65" s="207"/>
+      <c r="N65" s="207"/>
       <c r="O65" s="49"/>
     </row>
-    <row r="66" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="14"/>
       <c r="B66" s="142"/>
       <c r="C66" s="134" t="s">
@@ -5102,23 +5108,23 @@
       <c r="D66" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E66" s="166"/>
-      <c r="F66" s="196"/>
-      <c r="G66" s="221">
+      <c r="E66" s="233"/>
+      <c r="F66" s="205"/>
+      <c r="G66" s="170">
         <v>0.23310023310023309</v>
       </c>
-      <c r="H66" s="204"/>
-      <c r="I66" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J66" s="180"/>
-      <c r="K66" s="193"/>
+      <c r="H66" s="216"/>
+      <c r="I66" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J66" s="201"/>
+      <c r="K66" s="217"/>
       <c r="L66" s="111"/>
-      <c r="M66" s="205"/>
-      <c r="N66" s="205"/>
+      <c r="M66" s="207"/>
+      <c r="N66" s="207"/>
       <c r="O66" s="49"/>
     </row>
-    <row r="67" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="14"/>
       <c r="B67" s="142"/>
       <c r="C67" s="134" t="s">
@@ -5127,23 +5133,23 @@
       <c r="D67" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E67" s="166"/>
-      <c r="F67" s="196"/>
-      <c r="G67" s="221">
+      <c r="E67" s="233"/>
+      <c r="F67" s="205"/>
+      <c r="G67" s="170">
         <v>0.23310023310023309</v>
       </c>
-      <c r="H67" s="204"/>
-      <c r="I67" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J67" s="180"/>
-      <c r="K67" s="193"/>
+      <c r="H67" s="216"/>
+      <c r="I67" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J67" s="201"/>
+      <c r="K67" s="217"/>
       <c r="L67" s="111"/>
-      <c r="M67" s="205"/>
-      <c r="N67" s="205"/>
+      <c r="M67" s="207"/>
+      <c r="N67" s="207"/>
       <c r="O67" s="49"/>
     </row>
-    <row r="68" spans="1:15" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="107" t="s">
         <v>411</v>
       </c>
@@ -5152,15 +5158,15 @@
       <c r="D68" s="110" t="s">
         <v>409</v>
       </c>
-      <c r="E68" s="166"/>
+      <c r="E68" s="233"/>
       <c r="F68" s="110"/>
-      <c r="G68" s="230">
+      <c r="G68" s="179">
         <v>1E-4</v>
       </c>
       <c r="H68" s="148" t="s">
         <v>167</v>
       </c>
-      <c r="I68" s="247" t="s">
+      <c r="I68" s="195" t="s">
         <v>240</v>
       </c>
       <c r="J68" s="146"/>
@@ -5168,11 +5174,11 @@
       <c r="L68" s="155"/>
       <c r="M68" s="164"/>
       <c r="N68" s="164"/>
-      <c r="O68" s="216" t="s">
+      <c r="O68" s="165" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="69" spans="1:15" s="53" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" s="53" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A69" s="15" t="s">
         <v>412</v>
       </c>
@@ -5181,15 +5187,15 @@
       <c r="D69" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="E69" s="167"/>
+      <c r="E69" s="234"/>
       <c r="F69" s="2"/>
-      <c r="G69" s="221">
+      <c r="G69" s="170">
         <v>1</v>
       </c>
       <c r="H69" s="151" t="s">
         <v>167</v>
       </c>
-      <c r="I69" s="245" t="s">
+      <c r="I69" s="193" t="s">
         <v>240</v>
       </c>
       <c r="J69" s="105"/>
@@ -5199,7 +5205,7 @@
       <c r="N69" s="106"/>
       <c r="O69" s="52"/>
     </row>
-    <row r="70" spans="1:15" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="57" t="s">
         <v>3</v>
       </c>
@@ -5208,7 +5214,7 @@
       <c r="D70" s="1"/>
       <c r="E70" s="56"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="222"/>
+      <c r="G70" s="171"/>
       <c r="H70" s="76"/>
       <c r="I70" s="73"/>
       <c r="J70" s="76"/>
@@ -5218,7 +5224,7 @@
       <c r="N70" s="62"/>
       <c r="O70" s="75"/>
     </row>
-    <row r="71" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="14" t="s">
         <v>340</v>
       </c>
@@ -5235,25 +5241,25 @@
       <c r="F71" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="G71" s="231">
+      <c r="G71" s="180">
         <v>3640</v>
       </c>
-      <c r="H71" s="179" t="s">
+      <c r="H71" s="203" t="s">
         <v>167</v>
       </c>
-      <c r="I71" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J71" s="195" t="s">
+      <c r="I71" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J71" s="204" t="s">
         <v>5</v>
       </c>
       <c r="K71" s="45"/>
       <c r="L71" s="12"/>
       <c r="M71" s="22"/>
       <c r="N71" s="22"/>
-      <c r="O71" s="206"/>
-    </row>
-    <row r="72" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O71" s="208"/>
+    </row>
+    <row r="72" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="14" t="s">
         <v>7</v>
       </c>
@@ -5270,21 +5276,21 @@
       <c r="F72" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="G72" s="231">
+      <c r="G72" s="180">
         <v>5460</v>
       </c>
-      <c r="H72" s="179"/>
-      <c r="I72" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J72" s="195"/>
+      <c r="H72" s="203"/>
+      <c r="I72" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J72" s="204"/>
       <c r="K72" s="45"/>
       <c r="L72" s="12"/>
       <c r="M72" s="22"/>
       <c r="N72" s="22"/>
-      <c r="O72" s="206"/>
-    </row>
-    <row r="73" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O72" s="208"/>
+    </row>
+    <row r="73" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="14" t="s">
         <v>341</v>
       </c>
@@ -5301,21 +5307,21 @@
       <c r="F73" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="G73" s="231">
+      <c r="G73" s="180">
         <v>3640</v>
       </c>
-      <c r="H73" s="179"/>
-      <c r="I73" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J73" s="195"/>
+      <c r="H73" s="203"/>
+      <c r="I73" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J73" s="204"/>
       <c r="K73" s="45"/>
       <c r="L73" s="12"/>
       <c r="M73" s="22"/>
       <c r="N73" s="22"/>
-      <c r="O73" s="206"/>
-    </row>
-    <row r="74" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O73" s="208"/>
+    </row>
+    <row r="74" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="14" t="s">
         <v>10</v>
       </c>
@@ -5332,21 +5338,21 @@
       <c r="F74" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="G74" s="232">
+      <c r="G74" s="181">
         <v>45</v>
       </c>
-      <c r="H74" s="179"/>
-      <c r="I74" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J74" s="195"/>
+      <c r="H74" s="203"/>
+      <c r="I74" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J74" s="204"/>
       <c r="K74" s="45"/>
       <c r="L74" s="12"/>
       <c r="M74" s="22"/>
       <c r="N74" s="22"/>
-      <c r="O74" s="206"/>
-    </row>
-    <row r="75" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O74" s="208"/>
+    </row>
+    <row r="75" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="14" t="s">
         <v>12</v>
       </c>
@@ -5363,21 +5369,21 @@
       <c r="F75" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="G75" s="231">
+      <c r="G75" s="180">
         <v>6.8860000000000001</v>
       </c>
-      <c r="H75" s="179"/>
-      <c r="I75" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J75" s="195"/>
+      <c r="H75" s="203"/>
+      <c r="I75" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J75" s="204"/>
       <c r="K75" s="45"/>
       <c r="L75" s="12"/>
       <c r="M75" s="22"/>
       <c r="N75" s="22"/>
-      <c r="O75" s="206"/>
-    </row>
-    <row r="76" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O75" s="208"/>
+    </row>
+    <row r="76" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="14" t="s">
         <v>14</v>
       </c>
@@ -5394,21 +5400,21 @@
       <c r="F76" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="G76" s="231">
+      <c r="G76" s="180">
         <v>21</v>
       </c>
-      <c r="H76" s="179"/>
-      <c r="I76" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J76" s="195"/>
+      <c r="H76" s="203"/>
+      <c r="I76" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J76" s="204"/>
       <c r="K76" s="45"/>
       <c r="L76" s="12"/>
       <c r="M76" s="22"/>
       <c r="N76" s="22"/>
-      <c r="O76" s="206"/>
-    </row>
-    <row r="77" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O76" s="208"/>
+    </row>
+    <row r="77" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="14" t="s">
         <v>16</v>
       </c>
@@ -5425,21 +5431,21 @@
       <c r="F77" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="G77" s="231">
+      <c r="G77" s="180">
         <v>4.5</v>
       </c>
-      <c r="H77" s="179"/>
-      <c r="I77" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J77" s="195"/>
+      <c r="H77" s="203"/>
+      <c r="I77" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J77" s="204"/>
       <c r="K77" s="45"/>
       <c r="L77" s="12"/>
       <c r="M77" s="22"/>
       <c r="N77" s="22"/>
-      <c r="O77" s="206"/>
-    </row>
-    <row r="78" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O77" s="208"/>
+    </row>
+    <row r="78" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="14" t="s">
         <v>18</v>
       </c>
@@ -5456,21 +5462,21 @@
       <c r="F78" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="G78" s="231">
+      <c r="G78" s="180">
         <v>3640</v>
       </c>
-      <c r="H78" s="179"/>
-      <c r="I78" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J78" s="195"/>
+      <c r="H78" s="203"/>
+      <c r="I78" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J78" s="204"/>
       <c r="K78" s="45"/>
       <c r="L78" s="12"/>
       <c r="M78" s="22"/>
       <c r="N78" s="22"/>
-      <c r="O78" s="206"/>
-    </row>
-    <row r="79" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O78" s="208"/>
+    </row>
+    <row r="79" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="14" t="s">
         <v>20</v>
       </c>
@@ -5487,21 +5493,21 @@
       <c r="F79" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="G79" s="231">
+      <c r="G79" s="180">
         <v>728</v>
       </c>
-      <c r="H79" s="179"/>
-      <c r="I79" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J79" s="195"/>
+      <c r="H79" s="203"/>
+      <c r="I79" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J79" s="204"/>
       <c r="K79" s="45"/>
       <c r="L79" s="12"/>
       <c r="M79" s="22"/>
       <c r="N79" s="22"/>
-      <c r="O79" s="206"/>
-    </row>
-    <row r="80" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O79" s="208"/>
+    </row>
+    <row r="80" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="14" t="s">
         <v>22</v>
       </c>
@@ -5518,21 +5524,21 @@
       <c r="F80" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="G80" s="231">
+      <c r="G80" s="180">
         <v>7</v>
       </c>
-      <c r="H80" s="179"/>
-      <c r="I80" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J80" s="195"/>
+      <c r="H80" s="203"/>
+      <c r="I80" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J80" s="204"/>
       <c r="K80" s="45"/>
       <c r="L80" s="12"/>
       <c r="M80" s="22"/>
       <c r="N80" s="22"/>
-      <c r="O80" s="206"/>
-    </row>
-    <row r="81" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O80" s="208"/>
+    </row>
+    <row r="81" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="14" t="s">
         <v>24</v>
       </c>
@@ -5549,21 +5555,21 @@
       <c r="F81" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="G81" s="231">
+      <c r="G81" s="180">
         <v>1.5</v>
       </c>
-      <c r="H81" s="179"/>
-      <c r="I81" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J81" s="195"/>
+      <c r="H81" s="203"/>
+      <c r="I81" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J81" s="204"/>
       <c r="K81" s="45"/>
       <c r="L81" s="12"/>
       <c r="M81" s="22"/>
       <c r="N81" s="22"/>
-      <c r="O81" s="206"/>
-    </row>
-    <row r="82" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O81" s="208"/>
+    </row>
+    <row r="82" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="14" t="s">
         <v>26</v>
       </c>
@@ -5580,21 +5586,21 @@
       <c r="F82" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="G82" s="231">
+      <c r="G82" s="180">
         <v>3.5</v>
       </c>
-      <c r="H82" s="179"/>
-      <c r="I82" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J82" s="195"/>
+      <c r="H82" s="203"/>
+      <c r="I82" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J82" s="204"/>
       <c r="K82" s="45"/>
       <c r="L82" s="12"/>
       <c r="M82" s="22"/>
       <c r="N82" s="22"/>
-      <c r="O82" s="206"/>
-    </row>
-    <row r="83" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O82" s="208"/>
+    </row>
+    <row r="83" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="14" t="s">
         <v>342</v>
       </c>
@@ -5611,21 +5617,21 @@
       <c r="F83" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="G83" s="231">
+      <c r="G83" s="180">
         <v>0.25</v>
       </c>
-      <c r="H83" s="179"/>
-      <c r="I83" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J83" s="195"/>
+      <c r="H83" s="203"/>
+      <c r="I83" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J83" s="204"/>
       <c r="K83" s="45"/>
       <c r="L83" s="12"/>
       <c r="M83" s="22"/>
       <c r="N83" s="22"/>
-      <c r="O83" s="206"/>
-    </row>
-    <row r="84" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O83" s="208"/>
+    </row>
+    <row r="84" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="14" t="s">
         <v>343</v>
       </c>
@@ -5642,21 +5648,21 @@
       <c r="F84" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="G84" s="231">
+      <c r="G84" s="180">
         <v>0.25</v>
       </c>
-      <c r="H84" s="179"/>
-      <c r="I84" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J84" s="195"/>
+      <c r="H84" s="203"/>
+      <c r="I84" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J84" s="204"/>
       <c r="K84" s="45"/>
       <c r="L84" s="12"/>
       <c r="M84" s="22"/>
       <c r="N84" s="22"/>
-      <c r="O84" s="206"/>
-    </row>
-    <row r="85" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O84" s="208"/>
+    </row>
+    <row r="85" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="14" t="s">
         <v>344</v>
       </c>
@@ -5673,21 +5679,21 @@
       <c r="F85" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="G85" s="231">
+      <c r="G85" s="180">
         <v>0.25</v>
       </c>
-      <c r="H85" s="179"/>
-      <c r="I85" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J85" s="195"/>
+      <c r="H85" s="203"/>
+      <c r="I85" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J85" s="204"/>
       <c r="K85" s="45"/>
       <c r="L85" s="12"/>
       <c r="M85" s="22"/>
       <c r="N85" s="22"/>
-      <c r="O85" s="206"/>
-    </row>
-    <row r="86" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O85" s="208"/>
+    </row>
+    <row r="86" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="14" t="s">
         <v>345</v>
       </c>
@@ -5704,21 +5710,21 @@
       <c r="F86" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="G86" s="231">
+      <c r="G86" s="180">
         <v>0.25</v>
       </c>
-      <c r="H86" s="179"/>
-      <c r="I86" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J86" s="195"/>
+      <c r="H86" s="203"/>
+      <c r="I86" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J86" s="204"/>
       <c r="K86" s="45"/>
       <c r="L86" s="12"/>
       <c r="M86" s="22"/>
       <c r="N86" s="22"/>
-      <c r="O86" s="206"/>
-    </row>
-    <row r="87" spans="1:15" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O86" s="208"/>
+    </row>
+    <row r="87" spans="1:15" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="57" t="s">
         <v>31</v>
       </c>
@@ -5727,7 +5733,7 @@
       <c r="D87" s="1"/>
       <c r="E87" s="56"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="222"/>
+      <c r="G87" s="171"/>
       <c r="H87" s="76"/>
       <c r="I87" s="73"/>
       <c r="J87" s="76"/>
@@ -5737,7 +5743,7 @@
       <c r="N87" s="62"/>
       <c r="O87" s="75"/>
     </row>
-    <row r="88" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="14" t="s">
         <v>33</v>
       </c>
@@ -5757,24 +5763,24 @@
       <c r="G88" s="147">
         <v>138</v>
       </c>
-      <c r="H88" s="179" t="s">
+      <c r="H88" s="203" t="s">
         <v>168</v>
       </c>
-      <c r="I88" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J88" s="195" t="s">
+      <c r="I88" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J88" s="204" t="s">
         <v>184</v>
       </c>
       <c r="K88" s="45"/>
       <c r="L88" s="12"/>
       <c r="M88" s="23"/>
       <c r="N88" s="23"/>
-      <c r="O88" s="203" t="s">
+      <c r="O88" s="202" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="89" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="14" t="s">
         <v>35</v>
       </c>
@@ -5794,18 +5800,18 @@
       <c r="G89" s="147">
         <v>11</v>
       </c>
-      <c r="H89" s="179"/>
-      <c r="I89" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J89" s="195"/>
+      <c r="H89" s="203"/>
+      <c r="I89" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J89" s="204"/>
       <c r="K89" s="45"/>
       <c r="L89" s="12"/>
       <c r="M89" s="23"/>
       <c r="N89" s="23"/>
-      <c r="O89" s="198"/>
-    </row>
-    <row r="90" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O89" s="211"/>
+    </row>
+    <row r="90" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="14" t="s">
         <v>100</v>
       </c>
@@ -5822,21 +5828,21 @@
       <c r="F90" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="G90" s="233">
+      <c r="G90" s="182">
         <v>8</v>
       </c>
-      <c r="H90" s="179"/>
-      <c r="I90" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J90" s="195"/>
+      <c r="H90" s="203"/>
+      <c r="I90" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J90" s="204"/>
       <c r="K90" s="45"/>
       <c r="L90" s="12"/>
       <c r="M90" s="23"/>
       <c r="N90" s="23"/>
-      <c r="O90" s="198"/>
-    </row>
-    <row r="91" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O90" s="211"/>
+    </row>
+    <row r="91" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="14" t="s">
         <v>163</v>
       </c>
@@ -5853,21 +5859,21 @@
       <c r="F91" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="G91" s="233">
+      <c r="G91" s="182">
         <v>4</v>
       </c>
-      <c r="H91" s="179"/>
-      <c r="I91" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J91" s="195"/>
+      <c r="H91" s="203"/>
+      <c r="I91" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J91" s="204"/>
       <c r="K91" s="45"/>
       <c r="L91" s="12"/>
       <c r="M91" s="23"/>
       <c r="N91" s="23"/>
-      <c r="O91" s="198"/>
-    </row>
-    <row r="92" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O91" s="211"/>
+    </row>
+    <row r="92" spans="1:15" s="48" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="15" t="s">
         <v>37</v>
       </c>
@@ -5879,14 +5885,16 @@
         <v>36</v>
       </c>
       <c r="E92" s="14"/>
-      <c r="F92" s="110"/>
+      <c r="F92" s="110" t="s">
+        <v>510</v>
+      </c>
       <c r="G92" s="147">
         <v>4</v>
       </c>
       <c r="H92" s="145" t="s">
         <v>509</v>
       </c>
-      <c r="I92" s="245" t="s">
+      <c r="I92" s="193" t="s">
         <v>239</v>
       </c>
       <c r="J92" s="144" t="s">
@@ -5898,7 +5906,7 @@
       <c r="N92" s="22"/>
       <c r="O92" s="46"/>
     </row>
-    <row r="93" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" s="48" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="14" t="s">
         <v>39</v>
       </c>
@@ -5921,7 +5929,7 @@
       <c r="H93" s="145" t="s">
         <v>167</v>
       </c>
-      <c r="I93" s="245" t="s">
+      <c r="I93" s="193" t="s">
         <v>239</v>
       </c>
       <c r="J93" s="50" t="s">
@@ -5941,11 +5949,13 @@
         <v>348</v>
       </c>
     </row>
-    <row r="94" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B94" s="142"/>
+      <c r="B94" s="134" t="s">
+        <v>429</v>
+      </c>
       <c r="C94" s="134" t="s">
         <v>469</v>
       </c>
@@ -5953,14 +5963,16 @@
         <v>40</v>
       </c>
       <c r="E94" s="14"/>
-      <c r="F94" s="110"/>
+      <c r="F94" s="6" t="s">
+        <v>511</v>
+      </c>
       <c r="G94" s="147">
         <v>0.25</v>
       </c>
       <c r="H94" s="145" t="s">
         <v>509</v>
       </c>
-      <c r="I94" s="245" t="s">
+      <c r="I94" s="193" t="s">
         <v>239</v>
       </c>
       <c r="J94" s="50" t="s">
@@ -5972,7 +5984,7 @@
       <c r="N94" s="22"/>
       <c r="O94" s="46"/>
     </row>
-    <row r="95" spans="1:15" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="57" t="s">
         <v>41</v>
       </c>
@@ -5981,7 +5993,7 @@
       <c r="D95" s="1"/>
       <c r="E95" s="56"/>
       <c r="F95" s="1"/>
-      <c r="G95" s="222"/>
+      <c r="G95" s="171"/>
       <c r="H95" s="76"/>
       <c r="I95" s="73"/>
       <c r="J95" s="76"/>
@@ -5991,7 +6003,7 @@
       <c r="N95" s="62"/>
       <c r="O95" s="75"/>
     </row>
-    <row r="96" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="14" t="s">
         <v>350</v>
       </c>
@@ -6011,32 +6023,32 @@
       <c r="G96" s="147">
         <v>0</v>
       </c>
-      <c r="H96" s="179" t="s">
+      <c r="H96" s="203" t="s">
         <v>168</v>
       </c>
-      <c r="I96" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J96" s="180" t="s">
+      <c r="I96" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J96" s="201" t="s">
         <v>351</v>
       </c>
-      <c r="K96" s="195">
+      <c r="K96" s="204">
         <v>52</v>
       </c>
-      <c r="L96" s="201" t="s">
+      <c r="L96" s="214" t="s">
         <v>173</v>
       </c>
-      <c r="M96" s="202">
+      <c r="M96" s="215">
         <v>1</v>
       </c>
-      <c r="N96" s="202">
+      <c r="N96" s="215">
         <v>0</v>
       </c>
-      <c r="O96" s="198" t="s">
+      <c r="O96" s="211" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="97" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="14"/>
       <c r="B97" s="134" t="s">
         <v>466</v>
@@ -6054,18 +6066,18 @@
       <c r="G97" s="147">
         <v>0</v>
       </c>
-      <c r="H97" s="179"/>
-      <c r="I97" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J97" s="180"/>
-      <c r="K97" s="195"/>
-      <c r="L97" s="201"/>
-      <c r="M97" s="202"/>
-      <c r="N97" s="202"/>
-      <c r="O97" s="198"/>
-    </row>
-    <row r="98" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H97" s="203"/>
+      <c r="I97" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J97" s="201"/>
+      <c r="K97" s="204"/>
+      <c r="L97" s="214"/>
+      <c r="M97" s="215"/>
+      <c r="N97" s="215"/>
+      <c r="O97" s="211"/>
+    </row>
+    <row r="98" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="14"/>
       <c r="B98" s="134" t="s">
         <v>466</v>
@@ -6083,18 +6095,18 @@
       <c r="G98" s="147">
         <v>0</v>
       </c>
-      <c r="H98" s="179"/>
-      <c r="I98" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J98" s="180"/>
-      <c r="K98" s="195"/>
-      <c r="L98" s="201"/>
-      <c r="M98" s="202"/>
-      <c r="N98" s="202"/>
-      <c r="O98" s="198"/>
-    </row>
-    <row r="99" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H98" s="203"/>
+      <c r="I98" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J98" s="201"/>
+      <c r="K98" s="204"/>
+      <c r="L98" s="214"/>
+      <c r="M98" s="215"/>
+      <c r="N98" s="215"/>
+      <c r="O98" s="211"/>
+    </row>
+    <row r="99" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="14"/>
       <c r="B99" s="134" t="s">
         <v>466</v>
@@ -6112,18 +6124,18 @@
       <c r="G99" s="147">
         <v>0</v>
       </c>
-      <c r="H99" s="179"/>
-      <c r="I99" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J99" s="180"/>
-      <c r="K99" s="195"/>
-      <c r="L99" s="201"/>
-      <c r="M99" s="202"/>
-      <c r="N99" s="202"/>
-      <c r="O99" s="198"/>
-    </row>
-    <row r="100" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H99" s="203"/>
+      <c r="I99" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J99" s="201"/>
+      <c r="K99" s="204"/>
+      <c r="L99" s="214"/>
+      <c r="M99" s="215"/>
+      <c r="N99" s="215"/>
+      <c r="O99" s="211"/>
+    </row>
+    <row r="100" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="14"/>
       <c r="B100" s="134" t="s">
         <v>466</v>
@@ -6141,18 +6153,18 @@
       <c r="G100" s="147">
         <v>0</v>
       </c>
-      <c r="H100" s="179"/>
-      <c r="I100" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J100" s="180"/>
-      <c r="K100" s="195"/>
-      <c r="L100" s="201"/>
-      <c r="M100" s="202"/>
-      <c r="N100" s="202"/>
-      <c r="O100" s="198"/>
-    </row>
-    <row r="101" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H100" s="203"/>
+      <c r="I100" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J100" s="201"/>
+      <c r="K100" s="204"/>
+      <c r="L100" s="214"/>
+      <c r="M100" s="215"/>
+      <c r="N100" s="215"/>
+      <c r="O100" s="211"/>
+    </row>
+    <row r="101" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="14"/>
       <c r="B101" s="134" t="s">
         <v>466</v>
@@ -6170,18 +6182,18 @@
       <c r="G101" s="147">
         <v>0</v>
       </c>
-      <c r="H101" s="179"/>
-      <c r="I101" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J101" s="180"/>
-      <c r="K101" s="195"/>
-      <c r="L101" s="201"/>
-      <c r="M101" s="202"/>
-      <c r="N101" s="202"/>
-      <c r="O101" s="198"/>
-    </row>
-    <row r="102" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H101" s="203"/>
+      <c r="I101" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J101" s="201"/>
+      <c r="K101" s="204"/>
+      <c r="L101" s="214"/>
+      <c r="M101" s="215"/>
+      <c r="N101" s="215"/>
+      <c r="O101" s="211"/>
+    </row>
+    <row r="102" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="14"/>
       <c r="B102" s="134" t="s">
         <v>466</v>
@@ -6199,18 +6211,18 @@
       <c r="G102" s="147">
         <v>0</v>
       </c>
-      <c r="H102" s="179"/>
-      <c r="I102" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J102" s="180"/>
-      <c r="K102" s="195"/>
-      <c r="L102" s="201"/>
-      <c r="M102" s="202"/>
-      <c r="N102" s="202"/>
-      <c r="O102" s="198"/>
-    </row>
-    <row r="103" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H102" s="203"/>
+      <c r="I102" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J102" s="201"/>
+      <c r="K102" s="204"/>
+      <c r="L102" s="214"/>
+      <c r="M102" s="215"/>
+      <c r="N102" s="215"/>
+      <c r="O102" s="211"/>
+    </row>
+    <row r="103" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="14"/>
       <c r="B103" s="134" t="s">
         <v>466</v>
@@ -6228,18 +6240,18 @@
       <c r="G103" s="147">
         <v>0</v>
       </c>
-      <c r="H103" s="179"/>
-      <c r="I103" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J103" s="180"/>
-      <c r="K103" s="195"/>
-      <c r="L103" s="201"/>
-      <c r="M103" s="202"/>
-      <c r="N103" s="202"/>
-      <c r="O103" s="198"/>
-    </row>
-    <row r="104" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H103" s="203"/>
+      <c r="I103" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J103" s="201"/>
+      <c r="K103" s="204"/>
+      <c r="L103" s="214"/>
+      <c r="M103" s="215"/>
+      <c r="N103" s="215"/>
+      <c r="O103" s="211"/>
+    </row>
+    <row r="104" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="14"/>
       <c r="B104" s="134" t="s">
         <v>466</v>
@@ -6257,18 +6269,18 @@
       <c r="G104" s="147">
         <v>0</v>
       </c>
-      <c r="H104" s="179"/>
-      <c r="I104" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J104" s="180"/>
-      <c r="K104" s="195"/>
-      <c r="L104" s="201"/>
-      <c r="M104" s="202"/>
-      <c r="N104" s="202"/>
-      <c r="O104" s="198"/>
-    </row>
-    <row r="105" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H104" s="203"/>
+      <c r="I104" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J104" s="201"/>
+      <c r="K104" s="204"/>
+      <c r="L104" s="214"/>
+      <c r="M104" s="215"/>
+      <c r="N104" s="215"/>
+      <c r="O104" s="211"/>
+    </row>
+    <row r="105" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="14"/>
       <c r="B105" s="134" t="s">
         <v>466</v>
@@ -6286,18 +6298,18 @@
       <c r="G105" s="147">
         <v>0</v>
       </c>
-      <c r="H105" s="179"/>
-      <c r="I105" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J105" s="180"/>
-      <c r="K105" s="195"/>
-      <c r="L105" s="201"/>
-      <c r="M105" s="202"/>
-      <c r="N105" s="202"/>
-      <c r="O105" s="198"/>
-    </row>
-    <row r="106" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H105" s="203"/>
+      <c r="I105" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J105" s="201"/>
+      <c r="K105" s="204"/>
+      <c r="L105" s="214"/>
+      <c r="M105" s="215"/>
+      <c r="N105" s="215"/>
+      <c r="O105" s="211"/>
+    </row>
+    <row r="106" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="14"/>
       <c r="B106" s="134" t="s">
         <v>466</v>
@@ -6315,18 +6327,18 @@
       <c r="G106" s="147">
         <v>0</v>
       </c>
-      <c r="H106" s="179"/>
-      <c r="I106" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J106" s="180"/>
-      <c r="K106" s="195"/>
-      <c r="L106" s="201"/>
-      <c r="M106" s="202"/>
-      <c r="N106" s="202"/>
-      <c r="O106" s="198"/>
-    </row>
-    <row r="107" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H106" s="203"/>
+      <c r="I106" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J106" s="201"/>
+      <c r="K106" s="204"/>
+      <c r="L106" s="214"/>
+      <c r="M106" s="215"/>
+      <c r="N106" s="215"/>
+      <c r="O106" s="211"/>
+    </row>
+    <row r="107" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="14"/>
       <c r="B107" s="134" t="s">
         <v>466</v>
@@ -6344,18 +6356,18 @@
       <c r="G107" s="147">
         <v>0</v>
       </c>
-      <c r="H107" s="179"/>
-      <c r="I107" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J107" s="180"/>
-      <c r="K107" s="195"/>
-      <c r="L107" s="201"/>
-      <c r="M107" s="202"/>
-      <c r="N107" s="202"/>
-      <c r="O107" s="198"/>
-    </row>
-    <row r="108" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H107" s="203"/>
+      <c r="I107" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J107" s="201"/>
+      <c r="K107" s="204"/>
+      <c r="L107" s="214"/>
+      <c r="M107" s="215"/>
+      <c r="N107" s="215"/>
+      <c r="O107" s="211"/>
+    </row>
+    <row r="108" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="14"/>
       <c r="B108" s="134" t="s">
         <v>466</v>
@@ -6373,18 +6385,18 @@
       <c r="G108" s="147">
         <v>0</v>
       </c>
-      <c r="H108" s="179"/>
-      <c r="I108" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J108" s="180"/>
-      <c r="K108" s="195"/>
-      <c r="L108" s="201"/>
-      <c r="M108" s="202"/>
-      <c r="N108" s="202"/>
-      <c r="O108" s="198"/>
-    </row>
-    <row r="109" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H108" s="203"/>
+      <c r="I108" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J108" s="201"/>
+      <c r="K108" s="204"/>
+      <c r="L108" s="214"/>
+      <c r="M108" s="215"/>
+      <c r="N108" s="215"/>
+      <c r="O108" s="211"/>
+    </row>
+    <row r="109" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="14"/>
       <c r="B109" s="134" t="s">
         <v>466</v>
@@ -6402,18 +6414,18 @@
       <c r="G109" s="147">
         <v>0</v>
       </c>
-      <c r="H109" s="179"/>
-      <c r="I109" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J109" s="180"/>
-      <c r="K109" s="195"/>
-      <c r="L109" s="201"/>
-      <c r="M109" s="202"/>
-      <c r="N109" s="202"/>
-      <c r="O109" s="198"/>
-    </row>
-    <row r="110" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H109" s="203"/>
+      <c r="I109" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J109" s="201"/>
+      <c r="K109" s="204"/>
+      <c r="L109" s="214"/>
+      <c r="M109" s="215"/>
+      <c r="N109" s="215"/>
+      <c r="O109" s="211"/>
+    </row>
+    <row r="110" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="14"/>
       <c r="B110" s="134" t="s">
         <v>466</v>
@@ -6431,18 +6443,18 @@
       <c r="G110" s="147">
         <v>0</v>
       </c>
-      <c r="H110" s="179"/>
-      <c r="I110" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J110" s="180"/>
-      <c r="K110" s="195"/>
-      <c r="L110" s="201"/>
-      <c r="M110" s="202"/>
-      <c r="N110" s="202"/>
-      <c r="O110" s="198"/>
-    </row>
-    <row r="111" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H110" s="203"/>
+      <c r="I110" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J110" s="201"/>
+      <c r="K110" s="204"/>
+      <c r="L110" s="214"/>
+      <c r="M110" s="215"/>
+      <c r="N110" s="215"/>
+      <c r="O110" s="211"/>
+    </row>
+    <row r="111" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="14"/>
       <c r="B111" s="134" t="s">
         <v>466</v>
@@ -6460,18 +6472,18 @@
       <c r="G111" s="147">
         <v>0</v>
       </c>
-      <c r="H111" s="179"/>
-      <c r="I111" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J111" s="180"/>
-      <c r="K111" s="195"/>
-      <c r="L111" s="201"/>
-      <c r="M111" s="202"/>
-      <c r="N111" s="202"/>
-      <c r="O111" s="198"/>
-    </row>
-    <row r="112" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H111" s="203"/>
+      <c r="I111" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J111" s="201"/>
+      <c r="K111" s="204"/>
+      <c r="L111" s="214"/>
+      <c r="M111" s="215"/>
+      <c r="N111" s="215"/>
+      <c r="O111" s="211"/>
+    </row>
+    <row r="112" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="14"/>
       <c r="B112" s="134" t="s">
         <v>466</v>
@@ -6489,18 +6501,18 @@
       <c r="G112" s="147">
         <v>0</v>
       </c>
-      <c r="H112" s="179"/>
-      <c r="I112" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J112" s="180"/>
-      <c r="K112" s="195"/>
-      <c r="L112" s="201"/>
-      <c r="M112" s="202"/>
-      <c r="N112" s="202"/>
-      <c r="O112" s="198"/>
-    </row>
-    <row r="113" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H112" s="203"/>
+      <c r="I112" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J112" s="201"/>
+      <c r="K112" s="204"/>
+      <c r="L112" s="214"/>
+      <c r="M112" s="215"/>
+      <c r="N112" s="215"/>
+      <c r="O112" s="211"/>
+    </row>
+    <row r="113" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="14"/>
       <c r="B113" s="134" t="s">
         <v>466</v>
@@ -6518,18 +6530,18 @@
       <c r="G113" s="147">
         <v>0</v>
       </c>
-      <c r="H113" s="179"/>
-      <c r="I113" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J113" s="180"/>
-      <c r="K113" s="195"/>
-      <c r="L113" s="201"/>
-      <c r="M113" s="202"/>
-      <c r="N113" s="202"/>
-      <c r="O113" s="198"/>
-    </row>
-    <row r="114" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H113" s="203"/>
+      <c r="I113" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J113" s="201"/>
+      <c r="K113" s="204"/>
+      <c r="L113" s="214"/>
+      <c r="M113" s="215"/>
+      <c r="N113" s="215"/>
+      <c r="O113" s="211"/>
+    </row>
+    <row r="114" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="14"/>
       <c r="B114" s="134" t="s">
         <v>466</v>
@@ -6547,18 +6559,18 @@
       <c r="G114" s="147">
         <v>0</v>
       </c>
-      <c r="H114" s="179"/>
-      <c r="I114" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J114" s="180"/>
-      <c r="K114" s="195"/>
-      <c r="L114" s="201"/>
-      <c r="M114" s="202"/>
-      <c r="N114" s="202"/>
-      <c r="O114" s="198"/>
-    </row>
-    <row r="115" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H114" s="203"/>
+      <c r="I114" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J114" s="201"/>
+      <c r="K114" s="204"/>
+      <c r="L114" s="214"/>
+      <c r="M114" s="215"/>
+      <c r="N114" s="215"/>
+      <c r="O114" s="211"/>
+    </row>
+    <row r="115" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="14"/>
       <c r="B115" s="134" t="s">
         <v>466</v>
@@ -6576,18 +6588,18 @@
       <c r="G115" s="147">
         <v>0</v>
       </c>
-      <c r="H115" s="179"/>
-      <c r="I115" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J115" s="180"/>
-      <c r="K115" s="195"/>
-      <c r="L115" s="201"/>
-      <c r="M115" s="202"/>
-      <c r="N115" s="202"/>
-      <c r="O115" s="198"/>
-    </row>
-    <row r="116" spans="1:15" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H115" s="203"/>
+      <c r="I115" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J115" s="201"/>
+      <c r="K115" s="204"/>
+      <c r="L115" s="214"/>
+      <c r="M115" s="215"/>
+      <c r="N115" s="215"/>
+      <c r="O115" s="211"/>
+    </row>
+    <row r="116" spans="1:15" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="57" t="s">
         <v>42</v>
       </c>
@@ -6596,7 +6608,7 @@
       <c r="D116" s="1"/>
       <c r="E116" s="56"/>
       <c r="F116" s="1"/>
-      <c r="G116" s="222"/>
+      <c r="G116" s="171"/>
       <c r="H116" s="76"/>
       <c r="I116" s="73"/>
       <c r="J116" s="76"/>
@@ -6606,7 +6618,7 @@
       <c r="N116" s="62"/>
       <c r="O116" s="75"/>
     </row>
-    <row r="117" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="15" t="s">
         <v>353</v>
       </c>
@@ -6623,29 +6635,29 @@
       <c r="F117" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="G117" s="234">
+      <c r="G117" s="183">
         <v>0.77</v>
       </c>
-      <c r="H117" s="179" t="s">
+      <c r="H117" s="203" t="s">
         <v>166</v>
       </c>
-      <c r="I117" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J117" s="199" t="s">
+      <c r="I117" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J117" s="212" t="s">
         <v>354</v>
       </c>
-      <c r="K117" s="195">
+      <c r="K117" s="204">
         <v>53</v>
       </c>
       <c r="L117" s="12"/>
       <c r="M117" s="22"/>
       <c r="N117" s="22"/>
-      <c r="O117" s="200" t="s">
+      <c r="O117" s="213" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="118" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="14"/>
       <c r="B118" s="134" t="s">
         <v>463</v>
@@ -6660,21 +6672,21 @@
       <c r="F118" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="G118" s="234">
+      <c r="G118" s="183">
         <v>0.45</v>
       </c>
-      <c r="H118" s="179"/>
-      <c r="I118" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J118" s="199"/>
-      <c r="K118" s="195"/>
+      <c r="H118" s="203"/>
+      <c r="I118" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J118" s="212"/>
+      <c r="K118" s="204"/>
       <c r="L118" s="12"/>
       <c r="M118" s="22"/>
       <c r="N118" s="22"/>
-      <c r="O118" s="200"/>
-    </row>
-    <row r="119" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O118" s="213"/>
+    </row>
+    <row r="119" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="14"/>
       <c r="B119" s="134" t="s">
         <v>463</v>
@@ -6689,21 +6701,21 @@
       <c r="F119" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="G119" s="234">
+      <c r="G119" s="183">
         <v>0.48</v>
       </c>
-      <c r="H119" s="179"/>
-      <c r="I119" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J119" s="199"/>
-      <c r="K119" s="195"/>
+      <c r="H119" s="203"/>
+      <c r="I119" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J119" s="212"/>
+      <c r="K119" s="204"/>
       <c r="L119" s="12"/>
       <c r="M119" s="22"/>
       <c r="N119" s="22"/>
       <c r="O119" s="49"/>
     </row>
-    <row r="120" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="14"/>
       <c r="B120" s="134" t="s">
         <v>463</v>
@@ -6718,21 +6730,21 @@
       <c r="F120" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="G120" s="234">
+      <c r="G120" s="183">
         <v>0.36</v>
       </c>
-      <c r="H120" s="179"/>
-      <c r="I120" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J120" s="199"/>
-      <c r="K120" s="195"/>
+      <c r="H120" s="203"/>
+      <c r="I120" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J120" s="212"/>
+      <c r="K120" s="204"/>
       <c r="L120" s="12"/>
       <c r="M120" s="22"/>
       <c r="N120" s="22"/>
       <c r="O120" s="49"/>
     </row>
-    <row r="121" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="14"/>
       <c r="B121" s="134" t="s">
         <v>463</v>
@@ -6747,21 +6759,21 @@
       <c r="F121" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="G121" s="234">
+      <c r="G121" s="183">
         <v>0.91</v>
       </c>
-      <c r="H121" s="179"/>
-      <c r="I121" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J121" s="199"/>
-      <c r="K121" s="195"/>
+      <c r="H121" s="203"/>
+      <c r="I121" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J121" s="212"/>
+      <c r="K121" s="204"/>
       <c r="L121" s="12"/>
       <c r="M121" s="22"/>
       <c r="N121" s="22"/>
       <c r="O121" s="49"/>
     </row>
-    <row r="122" spans="1:15" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="57" t="s">
         <v>44</v>
       </c>
@@ -6770,7 +6782,7 @@
       <c r="D122" s="1"/>
       <c r="E122" s="56"/>
       <c r="F122" s="1"/>
-      <c r="G122" s="222"/>
+      <c r="G122" s="171"/>
       <c r="H122" s="76"/>
       <c r="I122" s="73"/>
       <c r="J122" s="76"/>
@@ -6780,7 +6792,7 @@
       <c r="N122" s="62"/>
       <c r="O122" s="75"/>
     </row>
-    <row r="123" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="14" t="s">
         <v>356</v>
       </c>
@@ -6800,14 +6812,14 @@
       <c r="G123" s="147">
         <v>0</v>
       </c>
-      <c r="H123" s="179" t="s">
+      <c r="H123" s="203" t="s">
         <v>167</v>
       </c>
-      <c r="I123" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J123" s="180"/>
-      <c r="K123" s="195">
+      <c r="I123" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J123" s="201"/>
+      <c r="K123" s="204">
         <v>54</v>
       </c>
       <c r="L123" s="12"/>
@@ -6817,7 +6829,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="124" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="14"/>
       <c r="B124" s="134" t="s">
         <v>429</v>
@@ -6835,12 +6847,12 @@
       <c r="G124" s="147">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H124" s="179"/>
-      <c r="I124" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J124" s="180"/>
-      <c r="K124" s="195"/>
+      <c r="H124" s="203"/>
+      <c r="I124" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J124" s="201"/>
+      <c r="K124" s="204"/>
       <c r="L124" s="12"/>
       <c r="M124" s="22"/>
       <c r="N124" s="22"/>
@@ -6848,7 +6860,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="125" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="14"/>
       <c r="B125" s="134" t="s">
         <v>429</v>
@@ -6866,18 +6878,18 @@
       <c r="G125" s="147">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H125" s="179"/>
-      <c r="I125" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J125" s="180"/>
-      <c r="K125" s="195"/>
+      <c r="H125" s="203"/>
+      <c r="I125" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J125" s="201"/>
+      <c r="K125" s="204"/>
       <c r="L125" s="12"/>
       <c r="M125" s="22"/>
       <c r="N125" s="22"/>
       <c r="O125" s="49"/>
     </row>
-    <row r="126" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="14" t="s">
         <v>127</v>
       </c>
@@ -6897,18 +6909,18 @@
       <c r="G126" s="147">
         <v>0</v>
       </c>
-      <c r="H126" s="179"/>
-      <c r="I126" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="J126" s="180"/>
-      <c r="K126" s="195"/>
+      <c r="H126" s="203"/>
+      <c r="I126" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="J126" s="201"/>
+      <c r="K126" s="204"/>
       <c r="L126" s="12"/>
       <c r="M126" s="22"/>
       <c r="N126" s="22"/>
       <c r="O126" s="49"/>
     </row>
-    <row r="127" spans="1:15" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="57" t="s">
         <v>254</v>
       </c>
@@ -6917,7 +6929,7 @@
       <c r="D127" s="1"/>
       <c r="E127" s="56"/>
       <c r="F127" s="1"/>
-      <c r="G127" s="222"/>
+      <c r="G127" s="171"/>
       <c r="H127" s="76"/>
       <c r="I127" s="73"/>
       <c r="J127" s="76"/>
@@ -6927,7 +6939,7 @@
       <c r="N127" s="62"/>
       <c r="O127" s="75"/>
     </row>
-    <row r="128" spans="1:15" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="15" t="s">
         <v>174</v>
       </c>
@@ -6941,7 +6953,7 @@
         <v>50</v>
       </c>
       <c r="E128" s="15"/>
-      <c r="F128" s="203" t="s">
+      <c r="F128" s="202" t="s">
         <v>397</v>
       </c>
       <c r="G128" s="147">
@@ -6950,7 +6962,7 @@
       <c r="H128" s="145" t="s">
         <v>167</v>
       </c>
-      <c r="I128" s="245" t="s">
+      <c r="I128" s="193" t="s">
         <v>240</v>
       </c>
       <c r="J128" s="8" t="s">
@@ -6966,7 +6978,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="129" spans="1:19" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="14" t="s">
         <v>154</v>
       </c>
@@ -6980,12 +6992,12 @@
         <v>145</v>
       </c>
       <c r="E129" s="14"/>
-      <c r="F129" s="203"/>
+      <c r="F129" s="202"/>
       <c r="G129" s="147">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="H129" s="145"/>
-      <c r="I129" s="245" t="s">
+      <c r="I129" s="193" t="s">
         <v>240</v>
       </c>
       <c r="J129" s="8"/>
@@ -6997,7 +7009,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="130" spans="1:19" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="14" t="s">
         <v>157</v>
       </c>
@@ -7011,12 +7023,12 @@
         <v>146</v>
       </c>
       <c r="E130" s="14"/>
-      <c r="F130" s="203"/>
-      <c r="G130" s="233" t="s">
+      <c r="F130" s="202"/>
+      <c r="G130" s="182" t="s">
         <v>56</v>
       </c>
       <c r="H130" s="145"/>
-      <c r="I130" s="245" t="s">
+      <c r="I130" s="193" t="s">
         <v>240</v>
       </c>
       <c r="J130" s="8"/>
@@ -7026,7 +7038,7 @@
       <c r="N130" s="22"/>
       <c r="O130" s="103"/>
     </row>
-    <row r="131" spans="1:19" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="15" t="s">
         <v>175</v>
       </c>
@@ -7040,12 +7052,12 @@
         <v>51</v>
       </c>
       <c r="E131" s="15"/>
-      <c r="F131" s="203"/>
+      <c r="F131" s="202"/>
       <c r="G131" s="147">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="H131" s="145"/>
-      <c r="I131" s="245" t="s">
+      <c r="I131" s="193" t="s">
         <v>240</v>
       </c>
       <c r="J131" s="8"/>
@@ -7055,7 +7067,7 @@
       <c r="N131" s="22"/>
       <c r="O131" s="103"/>
     </row>
-    <row r="132" spans="1:19" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="14" t="s">
         <v>152</v>
       </c>
@@ -7069,12 +7081,12 @@
         <v>141</v>
       </c>
       <c r="E132" s="14"/>
-      <c r="F132" s="203"/>
+      <c r="F132" s="202"/>
       <c r="G132" s="147">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="H132" s="145"/>
-      <c r="I132" s="245" t="s">
+      <c r="I132" s="193" t="s">
         <v>240</v>
       </c>
       <c r="J132" s="8"/>
@@ -7084,7 +7096,7 @@
       <c r="N132" s="22"/>
       <c r="O132" s="103"/>
     </row>
-    <row r="133" spans="1:19" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="14" t="s">
         <v>155</v>
       </c>
@@ -7098,12 +7110,12 @@
         <v>142</v>
       </c>
       <c r="E133" s="14"/>
-      <c r="F133" s="203"/>
-      <c r="G133" s="233" t="s">
+      <c r="F133" s="202"/>
+      <c r="G133" s="182" t="s">
         <v>56</v>
       </c>
       <c r="H133" s="145"/>
-      <c r="I133" s="245" t="s">
+      <c r="I133" s="193" t="s">
         <v>240</v>
       </c>
       <c r="J133" s="8"/>
@@ -7113,7 +7125,7 @@
       <c r="N133" s="22"/>
       <c r="O133" s="103"/>
     </row>
-    <row r="134" spans="1:19" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="15" t="s">
         <v>176</v>
       </c>
@@ -7127,12 +7139,12 @@
         <v>52</v>
       </c>
       <c r="E134" s="15"/>
-      <c r="F134" s="203"/>
+      <c r="F134" s="202"/>
       <c r="G134" s="147">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="H134" s="145"/>
-      <c r="I134" s="245" t="s">
+      <c r="I134" s="193" t="s">
         <v>240</v>
       </c>
       <c r="J134" s="8"/>
@@ -7142,7 +7154,7 @@
       <c r="N134" s="22"/>
       <c r="O134" s="103"/>
     </row>
-    <row r="135" spans="1:19" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="14" t="s">
         <v>153</v>
       </c>
@@ -7156,12 +7168,12 @@
         <v>143</v>
       </c>
       <c r="E135" s="14"/>
-      <c r="F135" s="203"/>
+      <c r="F135" s="202"/>
       <c r="G135" s="147">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="H135" s="145"/>
-      <c r="I135" s="245" t="s">
+      <c r="I135" s="193" t="s">
         <v>240</v>
       </c>
       <c r="J135" s="8"/>
@@ -7171,7 +7183,7 @@
       <c r="N135" s="22"/>
       <c r="O135" s="103"/>
     </row>
-    <row r="136" spans="1:19" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="14" t="s">
         <v>156</v>
       </c>
@@ -7185,12 +7197,12 @@
         <v>144</v>
       </c>
       <c r="E136" s="14"/>
-      <c r="F136" s="203"/>
+      <c r="F136" s="202"/>
       <c r="G136" s="147">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="H136" s="145"/>
-      <c r="I136" s="245" t="s">
+      <c r="I136" s="193" t="s">
         <v>240</v>
       </c>
       <c r="J136" s="8"/>
@@ -7200,7 +7212,7 @@
       <c r="N136" s="22"/>
       <c r="O136" s="103"/>
     </row>
-    <row r="137" spans="1:19" s="48" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" s="48" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="41" t="s">
         <v>217</v>
       </c>
@@ -7209,7 +7221,7 @@
       <c r="D137" s="10"/>
       <c r="E137" s="10"/>
       <c r="F137" s="10"/>
-      <c r="G137" s="222"/>
+      <c r="G137" s="171"/>
       <c r="H137" s="10"/>
       <c r="I137" s="19"/>
       <c r="J137" s="76"/>
@@ -7220,7 +7232,7 @@
       <c r="O137" s="63"/>
       <c r="P137" s="59"/>
     </row>
-    <row r="138" spans="1:19" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A138" s="18" t="s">
         <v>308</v>
       </c>
@@ -7237,8 +7249,8 @@
       <c r="F138" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="G138" s="223"/>
-      <c r="H138" s="249"/>
+      <c r="G138" s="172"/>
+      <c r="H138" s="197"/>
       <c r="I138" s="145"/>
       <c r="J138" s="51"/>
       <c r="K138" s="50">
@@ -7253,7 +7265,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="139" spans="1:19" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A139" s="18" t="s">
         <v>309</v>
       </c>
@@ -7270,8 +7282,8 @@
       <c r="F139" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="G139" s="223"/>
-      <c r="H139" s="249"/>
+      <c r="G139" s="172"/>
+      <c r="H139" s="197"/>
       <c r="I139" s="145"/>
       <c r="J139" s="51" t="s">
         <v>310</v>
@@ -7288,7 +7300,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="140" spans="1:19" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" s="46" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A140" s="37" t="s">
         <v>219</v>
       </c>
@@ -7318,7 +7330,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="141" spans="1:19" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A141" s="37" t="s">
         <v>221</v>
       </c>
@@ -7345,7 +7357,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="142" spans="1:19" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" s="46" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A142" s="37" t="s">
         <v>246</v>
       </c>
@@ -7383,7 +7395,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="143" spans="1:19" s="46" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" s="46" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A143" s="37" t="s">
         <v>234</v>
       </c>
@@ -7421,7 +7433,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="144" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A144" s="56" t="s">
         <v>47</v>
       </c>
@@ -7430,7 +7442,7 @@
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
-      <c r="G144" s="235"/>
+      <c r="G144" s="184"/>
       <c r="H144" s="73"/>
       <c r="I144" s="10"/>
       <c r="J144" s="79"/>
@@ -7444,7 +7456,7 @@
       <c r="R144" s="62"/>
       <c r="S144" s="75"/>
     </row>
-    <row r="145" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="14" t="s">
         <v>138</v>
       </c>
@@ -7458,7 +7470,7 @@
         <v>419</v>
       </c>
       <c r="E145"/>
-      <c r="F145" s="198" t="s">
+      <c r="F145" s="211" t="s">
         <v>271</v>
       </c>
       <c r="G145" s="116">
@@ -7470,11 +7482,11 @@
       <c r="I145" s="115" t="s">
         <v>240</v>
       </c>
-      <c r="J145" s="188" t="s">
+      <c r="J145" s="218" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A146" s="14" t="s">
         <v>138</v>
       </c>
@@ -7488,7 +7500,7 @@
         <v>418</v>
       </c>
       <c r="E146" s="53"/>
-      <c r="F146" s="198"/>
+      <c r="F146" s="211"/>
       <c r="G146" s="116">
         <v>0.19700000000000001</v>
       </c>
@@ -7498,9 +7510,9 @@
       <c r="I146" s="115" t="s">
         <v>240</v>
       </c>
-      <c r="J146" s="188"/>
-    </row>
-    <row r="147" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="J146" s="218"/>
+    </row>
+    <row r="147" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A147" s="14" t="s">
         <v>138</v>
       </c>
@@ -7514,7 +7526,7 @@
         <v>420</v>
       </c>
       <c r="E147" s="53"/>
-      <c r="F147" s="198"/>
+      <c r="F147" s="211"/>
       <c r="G147" s="116">
         <v>0.19700000000000001</v>
       </c>
@@ -7524,9 +7536,9 @@
       <c r="I147" s="115" t="s">
         <v>240</v>
       </c>
-      <c r="J147" s="188"/>
-    </row>
-    <row r="148" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="J147" s="218"/>
+    </row>
+    <row r="148" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A148" s="14" t="s">
         <v>138</v>
       </c>
@@ -7540,7 +7552,7 @@
         <v>421</v>
       </c>
       <c r="E148" s="53"/>
-      <c r="F148" s="198"/>
+      <c r="F148" s="211"/>
       <c r="G148" s="116">
         <v>0.19700000000000001</v>
       </c>
@@ -7550,9 +7562,9 @@
       <c r="I148" s="115" t="s">
         <v>240</v>
       </c>
-      <c r="J148" s="188"/>
-    </row>
-    <row r="149" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="J148" s="218"/>
+    </row>
+    <row r="149" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A149" s="14" t="s">
         <v>138</v>
       </c>
@@ -7566,7 +7578,7 @@
         <v>422</v>
       </c>
       <c r="E149" s="53"/>
-      <c r="F149" s="198"/>
+      <c r="F149" s="211"/>
       <c r="G149" s="116">
         <v>0.19700000000000001</v>
       </c>
@@ -7576,9 +7588,9 @@
       <c r="I149" s="115" t="s">
         <v>240</v>
       </c>
-      <c r="J149" s="188"/>
-    </row>
-    <row r="150" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="J149" s="218"/>
+    </row>
+    <row r="150" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A150" s="14" t="s">
         <v>138</v>
       </c>
@@ -7592,7 +7604,7 @@
         <v>423</v>
       </c>
       <c r="E150" s="53"/>
-      <c r="F150" s="198"/>
+      <c r="F150" s="211"/>
       <c r="G150" s="116">
         <v>0.12614285714285714</v>
       </c>
@@ -7602,9 +7614,9 @@
       <c r="I150" s="115" t="s">
         <v>240</v>
       </c>
-      <c r="J150" s="188"/>
-    </row>
-    <row r="151" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="J150" s="218"/>
+    </row>
+    <row r="151" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A151" s="14" t="s">
         <v>138</v>
       </c>
@@ -7618,7 +7630,7 @@
         <v>424</v>
       </c>
       <c r="E151" s="53"/>
-      <c r="F151" s="198"/>
+      <c r="F151" s="211"/>
       <c r="G151" s="116">
         <v>0.12614285714285714</v>
       </c>
@@ -7628,9 +7640,9 @@
       <c r="I151" s="115" t="s">
         <v>240</v>
       </c>
-      <c r="J151" s="188"/>
-    </row>
-    <row r="152" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="J151" s="218"/>
+    </row>
+    <row r="152" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A152" s="14" t="s">
         <v>138</v>
       </c>
@@ -7644,7 +7656,7 @@
         <v>425</v>
       </c>
       <c r="E152" s="53"/>
-      <c r="F152" s="198"/>
+      <c r="F152" s="211"/>
       <c r="G152" s="116">
         <v>0.12614285714285714</v>
       </c>
@@ -7654,9 +7666,9 @@
       <c r="I152" s="115" t="s">
         <v>240</v>
       </c>
-      <c r="J152" s="188"/>
-    </row>
-    <row r="153" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="J152" s="218"/>
+    </row>
+    <row r="153" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A153" s="14" t="s">
         <v>138</v>
       </c>
@@ -7670,7 +7682,7 @@
         <v>426</v>
       </c>
       <c r="E153" s="53"/>
-      <c r="F153" s="198"/>
+      <c r="F153" s="211"/>
       <c r="G153" s="116">
         <v>0.12614285714285714</v>
       </c>
@@ -7680,9 +7692,9 @@
       <c r="I153" s="115" t="s">
         <v>240</v>
       </c>
-      <c r="J153" s="188"/>
-    </row>
-    <row r="154" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="J153" s="218"/>
+    </row>
+    <row r="154" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A154" s="14" t="s">
         <v>138</v>
       </c>
@@ -7696,7 +7708,7 @@
         <v>427</v>
       </c>
       <c r="E154" s="53"/>
-      <c r="F154" s="198"/>
+      <c r="F154" s="211"/>
       <c r="G154" s="116">
         <v>0.12614285714285714</v>
       </c>
@@ -7706,9 +7718,9 @@
       <c r="I154" s="115" t="s">
         <v>240</v>
       </c>
-      <c r="J154" s="188"/>
-    </row>
-    <row r="155" spans="1:19" s="48" customFormat="1" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J154" s="218"/>
+    </row>
+    <row r="155" spans="1:19" s="48" customFormat="1" ht="111.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155" s="14" t="s">
         <v>314</v>
       </c>
@@ -7722,22 +7734,22 @@
         <v>128</v>
       </c>
       <c r="E155" s="53"/>
-      <c r="F155" s="194" t="s">
+      <c r="F155" s="219" t="s">
         <v>250</v>
       </c>
       <c r="G155" s="116">
         <v>0.25</v>
       </c>
-      <c r="H155" s="180" t="s">
+      <c r="H155" s="201" t="s">
         <v>315</v>
       </c>
-      <c r="I155" s="184" t="s">
-        <v>240</v>
-      </c>
-      <c r="J155" s="180" t="s">
+      <c r="I155" s="221" t="s">
+        <v>240</v>
+      </c>
+      <c r="J155" s="201" t="s">
         <v>316</v>
       </c>
-      <c r="K155" s="195">
+      <c r="K155" s="204">
         <v>55</v>
       </c>
       <c r="O155" s="49" t="s">
@@ -7747,7 +7759,7 @@
       <c r="Q155" s="22"/>
       <c r="R155" s="22"/>
     </row>
-    <row r="156" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A156" s="14" t="s">
         <v>78</v>
       </c>
@@ -7761,20 +7773,20 @@
         <v>129</v>
       </c>
       <c r="E156" s="53"/>
-      <c r="F156" s="194"/>
+      <c r="F156" s="219"/>
       <c r="G156" s="116">
         <v>0.19</v>
       </c>
-      <c r="H156" s="180"/>
-      <c r="I156" s="184"/>
-      <c r="J156" s="180"/>
-      <c r="K156" s="195"/>
+      <c r="H156" s="201"/>
+      <c r="I156" s="221"/>
+      <c r="J156" s="201"/>
+      <c r="K156" s="204"/>
       <c r="P156" s="12"/>
       <c r="Q156" s="22"/>
       <c r="R156" s="22"/>
       <c r="S156" s="49"/>
     </row>
-    <row r="157" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A157" s="14" t="s">
         <v>78</v>
       </c>
@@ -7788,20 +7800,20 @@
         <v>130</v>
       </c>
       <c r="E157" s="53"/>
-      <c r="F157" s="194"/>
+      <c r="F157" s="219"/>
       <c r="G157" s="116">
         <v>0.26</v>
       </c>
-      <c r="H157" s="180"/>
-      <c r="I157" s="184"/>
-      <c r="J157" s="180"/>
-      <c r="K157" s="195"/>
+      <c r="H157" s="201"/>
+      <c r="I157" s="221"/>
+      <c r="J157" s="201"/>
+      <c r="K157" s="204"/>
       <c r="P157" s="12"/>
       <c r="Q157" s="22"/>
       <c r="R157" s="22"/>
       <c r="S157" s="49"/>
     </row>
-    <row r="158" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A158" s="14" t="s">
         <v>78</v>
       </c>
@@ -7815,20 +7827,20 @@
         <v>131</v>
       </c>
       <c r="E158" s="53"/>
-      <c r="F158" s="194"/>
+      <c r="F158" s="219"/>
       <c r="G158" s="116">
         <v>0.24</v>
       </c>
-      <c r="H158" s="180"/>
-      <c r="I158" s="184"/>
-      <c r="J158" s="180"/>
-      <c r="K158" s="195"/>
+      <c r="H158" s="201"/>
+      <c r="I158" s="221"/>
+      <c r="J158" s="201"/>
+      <c r="K158" s="204"/>
       <c r="P158" s="12"/>
       <c r="Q158" s="22"/>
       <c r="R158" s="22"/>
       <c r="S158" s="49"/>
     </row>
-    <row r="159" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A159" s="14" t="s">
         <v>78</v>
       </c>
@@ -7842,20 +7854,20 @@
         <v>132</v>
       </c>
       <c r="E159" s="53"/>
-      <c r="F159" s="194"/>
+      <c r="F159" s="219"/>
       <c r="G159" s="116">
         <v>0.22</v>
       </c>
-      <c r="H159" s="180"/>
-      <c r="I159" s="184"/>
-      <c r="J159" s="180"/>
-      <c r="K159" s="195"/>
+      <c r="H159" s="201"/>
+      <c r="I159" s="221"/>
+      <c r="J159" s="201"/>
+      <c r="K159" s="204"/>
       <c r="P159" s="12"/>
       <c r="Q159" s="22"/>
       <c r="R159" s="22"/>
       <c r="S159" s="49"/>
     </row>
-    <row r="160" spans="1:19" s="48" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" s="48" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A160" s="14" t="s">
         <v>318</v>
       </c>
@@ -7869,20 +7881,20 @@
         <v>133</v>
       </c>
       <c r="E160" s="53"/>
-      <c r="F160" s="194"/>
+      <c r="F160" s="219"/>
       <c r="G160" s="116">
         <v>0.12</v>
       </c>
-      <c r="H160" s="180"/>
-      <c r="I160" s="184"/>
-      <c r="J160" s="180"/>
-      <c r="K160" s="195"/>
+      <c r="H160" s="201"/>
+      <c r="I160" s="221"/>
+      <c r="J160" s="201"/>
+      <c r="K160" s="204"/>
       <c r="P160" s="12"/>
       <c r="Q160" s="22"/>
       <c r="R160" s="22"/>
       <c r="S160" s="49"/>
     </row>
-    <row r="161" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A161" s="14" t="s">
         <v>78</v>
       </c>
@@ -7896,20 +7908,20 @@
         <v>134</v>
       </c>
       <c r="E161" s="53"/>
-      <c r="F161" s="194"/>
+      <c r="F161" s="219"/>
       <c r="G161" s="116">
         <v>0.09</v>
       </c>
-      <c r="H161" s="180"/>
-      <c r="I161" s="184"/>
-      <c r="J161" s="180"/>
-      <c r="K161" s="195"/>
+      <c r="H161" s="201"/>
+      <c r="I161" s="221"/>
+      <c r="J161" s="201"/>
+      <c r="K161" s="204"/>
       <c r="P161" s="12"/>
       <c r="Q161" s="22"/>
       <c r="R161" s="22"/>
       <c r="S161" s="49"/>
     </row>
-    <row r="162" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A162" s="14" t="s">
         <v>78</v>
       </c>
@@ -7923,20 +7935,20 @@
         <v>135</v>
       </c>
       <c r="E162" s="53"/>
-      <c r="F162" s="194"/>
+      <c r="F162" s="219"/>
       <c r="G162" s="116">
         <v>0.12</v>
       </c>
-      <c r="H162" s="180"/>
-      <c r="I162" s="184"/>
-      <c r="J162" s="180"/>
-      <c r="K162" s="195"/>
+      <c r="H162" s="201"/>
+      <c r="I162" s="221"/>
+      <c r="J162" s="201"/>
+      <c r="K162" s="204"/>
       <c r="P162" s="12"/>
       <c r="Q162" s="22"/>
       <c r="R162" s="22"/>
       <c r="S162" s="49"/>
     </row>
-    <row r="163" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A163" s="14" t="s">
         <v>78</v>
       </c>
@@ -7950,20 +7962,20 @@
         <v>136</v>
       </c>
       <c r="E163" s="53"/>
-      <c r="F163" s="194"/>
+      <c r="F163" s="219"/>
       <c r="G163" s="116">
         <v>0.09</v>
       </c>
-      <c r="H163" s="180"/>
-      <c r="I163" s="184"/>
-      <c r="J163" s="180"/>
-      <c r="K163" s="195"/>
+      <c r="H163" s="201"/>
+      <c r="I163" s="221"/>
+      <c r="J163" s="201"/>
+      <c r="K163" s="204"/>
       <c r="P163" s="12"/>
       <c r="Q163" s="22"/>
       <c r="R163" s="22"/>
       <c r="S163" s="49"/>
     </row>
-    <row r="164" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A164" s="14" t="s">
         <v>78</v>
       </c>
@@ -7977,20 +7989,20 @@
         <v>137</v>
       </c>
       <c r="E164" s="53"/>
-      <c r="F164" s="194"/>
+      <c r="F164" s="219"/>
       <c r="G164" s="116">
         <v>0.12</v>
       </c>
-      <c r="H164" s="180"/>
-      <c r="I164" s="184"/>
-      <c r="J164" s="180"/>
-      <c r="K164" s="195"/>
+      <c r="H164" s="201"/>
+      <c r="I164" s="221"/>
+      <c r="J164" s="201"/>
+      <c r="K164" s="204"/>
       <c r="P164" s="12"/>
       <c r="Q164" s="22"/>
       <c r="R164" s="22"/>
       <c r="S164" s="49"/>
     </row>
-    <row r="165" spans="1:19" s="59" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" s="59" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A165" s="57" t="s">
         <v>187</v>
       </c>
@@ -8001,8 +8013,8 @@
       </c>
       <c r="E165" s="56"/>
       <c r="F165" s="1"/>
-      <c r="G165" s="236"/>
-      <c r="H165" s="250"/>
+      <c r="G165" s="185"/>
+      <c r="H165" s="198"/>
       <c r="I165" s="79"/>
       <c r="J165" s="79"/>
       <c r="K165" s="79"/>
@@ -8015,7 +8027,7 @@
       <c r="R165" s="62"/>
       <c r="S165" s="63"/>
     </row>
-    <row r="166" spans="1:19" s="48" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" s="48" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A166" s="14" t="s">
         <v>319</v>
       </c>
@@ -8035,14 +8047,14 @@
       <c r="G166" s="116">
         <v>0.12</v>
       </c>
-      <c r="H166" s="179" t="s">
+      <c r="H166" s="203" t="s">
         <v>166</v>
       </c>
-      <c r="I166" s="185" t="s">
+      <c r="I166" s="227" t="s">
         <v>240</v>
       </c>
       <c r="J166" s="11"/>
-      <c r="K166" s="180">
+      <c r="K166" s="201">
         <v>11</v>
       </c>
       <c r="N166"/>
@@ -8051,7 +8063,7 @@
       <c r="Q166" s="22"/>
       <c r="R166" s="49"/>
     </row>
-    <row r="167" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A167" s="14" t="s">
         <v>78</v>
       </c>
@@ -8071,17 +8083,17 @@
       <c r="G167" s="116">
         <v>0.17</v>
       </c>
-      <c r="H167" s="179"/>
-      <c r="I167" s="179"/>
+      <c r="H167" s="203"/>
+      <c r="I167" s="203"/>
       <c r="J167" s="11"/>
-      <c r="K167" s="180"/>
+      <c r="K167" s="201"/>
       <c r="N167"/>
       <c r="O167" s="12"/>
       <c r="P167" s="22"/>
       <c r="Q167" s="22"/>
       <c r="R167" s="49"/>
     </row>
-    <row r="168" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A168" s="14" t="s">
         <v>78</v>
       </c>
@@ -8101,17 +8113,17 @@
       <c r="G168" s="116">
         <v>0.17</v>
       </c>
-      <c r="H168" s="179"/>
-      <c r="I168" s="179"/>
+      <c r="H168" s="203"/>
+      <c r="I168" s="203"/>
       <c r="J168" s="11"/>
-      <c r="K168" s="180"/>
+      <c r="K168" s="201"/>
       <c r="N168" s="45"/>
       <c r="O168" s="12"/>
       <c r="P168" s="22"/>
       <c r="Q168" s="22"/>
       <c r="R168" s="49"/>
     </row>
-    <row r="169" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A169" s="14" t="s">
         <v>78</v>
       </c>
@@ -8131,17 +8143,17 @@
       <c r="G169" s="116">
         <v>0.19</v>
       </c>
-      <c r="H169" s="179"/>
-      <c r="I169" s="179"/>
+      <c r="H169" s="203"/>
+      <c r="I169" s="203"/>
       <c r="J169" s="11"/>
-      <c r="K169" s="180"/>
+      <c r="K169" s="201"/>
       <c r="N169" s="45"/>
       <c r="O169" s="12"/>
       <c r="P169" s="22"/>
       <c r="Q169" s="22"/>
       <c r="R169" s="49"/>
     </row>
-    <row r="170" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A170" s="14" t="s">
         <v>78</v>
       </c>
@@ -8161,17 +8173,17 @@
       <c r="G170" s="116">
         <v>0.16</v>
       </c>
-      <c r="H170" s="179"/>
-      <c r="I170" s="179"/>
+      <c r="H170" s="203"/>
+      <c r="I170" s="203"/>
       <c r="J170" s="11"/>
-      <c r="K170" s="180"/>
+      <c r="K170" s="201"/>
       <c r="N170" s="44"/>
       <c r="O170" s="12"/>
       <c r="P170" s="22"/>
       <c r="Q170" s="22"/>
       <c r="R170" s="49"/>
     </row>
-    <row r="171" spans="1:19" s="53" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" s="53" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A171" s="15" t="s">
         <v>430</v>
       </c>
@@ -8190,15 +8202,15 @@
       <c r="G171" s="116">
         <v>0.54</v>
       </c>
-      <c r="H171" s="179"/>
-      <c r="I171" s="179"/>
+      <c r="H171" s="203"/>
+      <c r="I171" s="203"/>
       <c r="J171" s="22"/>
-      <c r="K171" s="189">
+      <c r="K171" s="222">
         <v>56</v>
       </c>
       <c r="L171" s="52"/>
     </row>
-    <row r="172" spans="1:19" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A172" s="15" t="s">
         <v>78</v>
       </c>
@@ -8217,13 +8229,13 @@
       <c r="G172" s="116">
         <v>0.65</v>
       </c>
-      <c r="H172" s="179"/>
-      <c r="I172" s="179"/>
+      <c r="H172" s="203"/>
+      <c r="I172" s="203"/>
       <c r="J172" s="22"/>
-      <c r="K172" s="189"/>
+      <c r="K172" s="222"/>
       <c r="L172" s="52"/>
     </row>
-    <row r="173" spans="1:19" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A173" s="15" t="s">
         <v>78</v>
       </c>
@@ -8242,13 +8254,13 @@
       <c r="G173" s="116">
         <v>0.5</v>
       </c>
-      <c r="H173" s="179"/>
-      <c r="I173" s="179"/>
+      <c r="H173" s="203"/>
+      <c r="I173" s="203"/>
       <c r="J173" s="22"/>
-      <c r="K173" s="189"/>
+      <c r="K173" s="222"/>
       <c r="L173" s="52"/>
     </row>
-    <row r="174" spans="1:19" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A174" s="15" t="s">
         <v>78</v>
       </c>
@@ -8267,13 +8279,13 @@
       <c r="G174" s="116">
         <v>0.49</v>
       </c>
-      <c r="H174" s="179"/>
-      <c r="I174" s="179"/>
+      <c r="H174" s="203"/>
+      <c r="I174" s="203"/>
       <c r="J174" s="22"/>
-      <c r="K174" s="189"/>
+      <c r="K174" s="222"/>
       <c r="L174" s="52"/>
     </row>
-    <row r="175" spans="1:19" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A175" s="15" t="s">
         <v>78</v>
       </c>
@@ -8292,13 +8304,13 @@
       <c r="G175" s="116">
         <v>0.48</v>
       </c>
-      <c r="H175" s="179"/>
-      <c r="I175" s="179"/>
+      <c r="H175" s="203"/>
+      <c r="I175" s="203"/>
       <c r="J175" s="22"/>
-      <c r="K175" s="189"/>
+      <c r="K175" s="222"/>
       <c r="L175" s="52"/>
     </row>
-    <row r="176" spans="1:19" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" s="7" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A176" s="127" t="s">
         <v>455</v>
       </c>
@@ -8315,15 +8327,15 @@
       <c r="F176" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="G176" s="228">
+      <c r="G176" s="177">
         <v>3.04E-2</v>
       </c>
-      <c r="H176" s="179"/>
-      <c r="I176" s="179"/>
+      <c r="H176" s="203"/>
+      <c r="I176" s="203"/>
       <c r="J176" s="23"/>
-      <c r="K176" s="189"/>
-    </row>
-    <row r="177" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K176" s="222"/>
+    </row>
+    <row r="177" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A177" s="127" t="s">
         <v>78</v>
       </c>
@@ -8340,15 +8352,15 @@
       <c r="F177" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="G177" s="228">
+      <c r="G177" s="177">
         <v>3.04E-2</v>
       </c>
-      <c r="H177" s="179"/>
-      <c r="I177" s="179"/>
+      <c r="H177" s="203"/>
+      <c r="I177" s="203"/>
       <c r="J177" s="23"/>
-      <c r="K177" s="189"/>
-    </row>
-    <row r="178" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K177" s="222"/>
+    </row>
+    <row r="178" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A178" s="127" t="s">
         <v>78</v>
       </c>
@@ -8365,15 +8377,15 @@
       <c r="F178" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="G178" s="228">
+      <c r="G178" s="177">
         <v>3.04E-2</v>
       </c>
-      <c r="H178" s="179"/>
-      <c r="I178" s="179"/>
+      <c r="H178" s="203"/>
+      <c r="I178" s="203"/>
       <c r="J178" s="23"/>
-      <c r="K178" s="189"/>
-    </row>
-    <row r="179" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K178" s="222"/>
+    </row>
+    <row r="179" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A179" s="127" t="s">
         <v>78</v>
       </c>
@@ -8390,15 +8402,15 @@
       <c r="F179" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="G179" s="228">
+      <c r="G179" s="177">
         <v>3.04E-2</v>
       </c>
-      <c r="H179" s="179"/>
-      <c r="I179" s="179"/>
+      <c r="H179" s="203"/>
+      <c r="I179" s="203"/>
       <c r="J179" s="23"/>
-      <c r="K179" s="189"/>
-    </row>
-    <row r="180" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K179" s="222"/>
+    </row>
+    <row r="180" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A180" s="127" t="s">
         <v>78</v>
       </c>
@@ -8415,15 +8427,15 @@
       <c r="F180" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="G180" s="228">
+      <c r="G180" s="177">
         <v>3.04E-2</v>
       </c>
-      <c r="H180" s="179"/>
-      <c r="I180" s="179"/>
+      <c r="H180" s="203"/>
+      <c r="I180" s="203"/>
       <c r="J180" s="23"/>
-      <c r="K180" s="189"/>
-    </row>
-    <row r="181" spans="1:12" s="7" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K180" s="222"/>
+    </row>
+    <row r="181" spans="1:12" s="7" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A181" s="127" t="s">
         <v>449</v>
       </c>
@@ -8440,15 +8452,15 @@
       <c r="F181" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="G181" s="228">
+      <c r="G181" s="177">
         <v>6.2E-2</v>
       </c>
-      <c r="H181" s="179"/>
-      <c r="I181" s="179"/>
+      <c r="H181" s="203"/>
+      <c r="I181" s="203"/>
       <c r="J181" s="23"/>
-      <c r="K181" s="189"/>
-    </row>
-    <row r="182" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K181" s="222"/>
+    </row>
+    <row r="182" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A182" s="127" t="s">
         <v>78</v>
       </c>
@@ -8464,15 +8476,15 @@
       <c r="F182" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="G182" s="228">
+      <c r="G182" s="177">
         <v>6.2E-2</v>
       </c>
-      <c r="H182" s="179"/>
-      <c r="I182" s="179"/>
+      <c r="H182" s="203"/>
+      <c r="I182" s="203"/>
       <c r="J182" s="23"/>
-      <c r="K182" s="189"/>
-    </row>
-    <row r="183" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K182" s="222"/>
+    </row>
+    <row r="183" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A183" s="127" t="s">
         <v>78</v>
       </c>
@@ -8489,15 +8501,15 @@
       <c r="F183" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="G183" s="228">
+      <c r="G183" s="177">
         <v>6.2E-2</v>
       </c>
-      <c r="H183" s="179"/>
-      <c r="I183" s="179"/>
+      <c r="H183" s="203"/>
+      <c r="I183" s="203"/>
       <c r="J183" s="23"/>
-      <c r="K183" s="189"/>
-    </row>
-    <row r="184" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K183" s="222"/>
+    </row>
+    <row r="184" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A184" s="127" t="s">
         <v>78</v>
       </c>
@@ -8514,15 +8526,15 @@
       <c r="F184" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="G184" s="228">
+      <c r="G184" s="177">
         <v>6.2E-2</v>
       </c>
-      <c r="H184" s="179"/>
-      <c r="I184" s="179"/>
+      <c r="H184" s="203"/>
+      <c r="I184" s="203"/>
       <c r="J184" s="23"/>
-      <c r="K184" s="189"/>
-    </row>
-    <row r="185" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K184" s="222"/>
+    </row>
+    <row r="185" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A185" s="127" t="s">
         <v>78</v>
       </c>
@@ -8539,15 +8551,15 @@
       <c r="F185" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="G185" s="228">
+      <c r="G185" s="177">
         <v>6.2E-2</v>
       </c>
-      <c r="H185" s="179"/>
-      <c r="I185" s="179"/>
+      <c r="H185" s="203"/>
+      <c r="I185" s="203"/>
       <c r="J185" s="23"/>
-      <c r="K185" s="189"/>
-    </row>
-    <row r="186" spans="1:12" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="K185" s="222"/>
+    </row>
+    <row r="186" spans="1:12" s="7" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A186" s="127" t="s">
         <v>436</v>
       </c>
@@ -8563,15 +8575,15 @@
       <c r="F186" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="G186" s="221">
+      <c r="G186" s="170">
         <v>0.41299999999999998</v>
       </c>
-      <c r="H186" s="179"/>
-      <c r="I186" s="179"/>
+      <c r="H186" s="203"/>
+      <c r="I186" s="203"/>
       <c r="J186" s="23"/>
-      <c r="K186" s="189"/>
-    </row>
-    <row r="187" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K186" s="222"/>
+    </row>
+    <row r="187" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A187" s="127" t="s">
         <v>78</v>
       </c>
@@ -8587,16 +8599,16 @@
       <c r="F187" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="G187" s="221">
+      <c r="G187" s="170">
         <v>0.41299999999999998</v>
       </c>
-      <c r="H187" s="179"/>
-      <c r="I187" s="179"/>
+      <c r="H187" s="203"/>
+      <c r="I187" s="203"/>
       <c r="J187" s="23"/>
-      <c r="K187" s="189"/>
+      <c r="K187" s="222"/>
       <c r="L187" s="17"/>
     </row>
-    <row r="188" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A188" s="127" t="s">
         <v>78</v>
       </c>
@@ -8612,16 +8624,16 @@
       <c r="F188" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="G188" s="221">
+      <c r="G188" s="170">
         <v>0.41299999999999998</v>
       </c>
-      <c r="H188" s="179"/>
-      <c r="I188" s="179"/>
+      <c r="H188" s="203"/>
+      <c r="I188" s="203"/>
       <c r="J188" s="23"/>
-      <c r="K188" s="189"/>
+      <c r="K188" s="222"/>
       <c r="L188" s="17"/>
     </row>
-    <row r="189" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A189" s="127" t="s">
         <v>78</v>
       </c>
@@ -8637,16 +8649,16 @@
       <c r="F189" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="G189" s="221">
+      <c r="G189" s="170">
         <v>0.41299999999999998</v>
       </c>
-      <c r="H189" s="179"/>
-      <c r="I189" s="179"/>
+      <c r="H189" s="203"/>
+      <c r="I189" s="203"/>
       <c r="J189" s="23"/>
-      <c r="K189" s="189"/>
+      <c r="K189" s="222"/>
       <c r="L189" s="17"/>
     </row>
-    <row r="190" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A190" s="127" t="s">
         <v>78</v>
       </c>
@@ -8662,16 +8674,16 @@
       <c r="F190" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="G190" s="221">
+      <c r="G190" s="170">
         <v>0.41299999999999998</v>
       </c>
-      <c r="H190" s="179"/>
-      <c r="I190" s="179"/>
+      <c r="H190" s="203"/>
+      <c r="I190" s="203"/>
       <c r="J190" s="23"/>
-      <c r="K190" s="189"/>
+      <c r="K190" s="222"/>
       <c r="L190" s="17"/>
     </row>
-    <row r="191" spans="1:12" s="53" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" s="53" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A191" s="15" t="s">
         <v>442</v>
       </c>
@@ -8690,13 +8702,13 @@
       <c r="G191" s="147">
         <v>0.85</v>
       </c>
-      <c r="H191" s="179"/>
-      <c r="I191" s="179"/>
+      <c r="H191" s="203"/>
+      <c r="I191" s="203"/>
       <c r="J191" s="22"/>
-      <c r="K191" s="189"/>
+      <c r="K191" s="222"/>
       <c r="L191" s="52"/>
     </row>
-    <row r="192" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A192" s="15" t="s">
         <v>78</v>
       </c>
@@ -8715,13 +8727,13 @@
       <c r="G192" s="147">
         <v>0.73</v>
       </c>
-      <c r="H192" s="179"/>
-      <c r="I192" s="179"/>
+      <c r="H192" s="203"/>
+      <c r="I192" s="203"/>
       <c r="J192" s="22"/>
-      <c r="K192" s="189"/>
+      <c r="K192" s="222"/>
       <c r="L192" s="52"/>
     </row>
-    <row r="193" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A193" s="15" t="s">
         <v>78</v>
       </c>
@@ -8740,13 +8752,13 @@
       <c r="G193" s="147">
         <v>0.78</v>
       </c>
-      <c r="H193" s="179"/>
-      <c r="I193" s="179"/>
+      <c r="H193" s="203"/>
+      <c r="I193" s="203"/>
       <c r="J193" s="22"/>
-      <c r="K193" s="189"/>
+      <c r="K193" s="222"/>
       <c r="L193" s="52"/>
     </row>
-    <row r="194" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A194" s="15" t="s">
         <v>78</v>
       </c>
@@ -8765,13 +8777,13 @@
       <c r="G194" s="147">
         <v>0.76</v>
       </c>
-      <c r="H194" s="179"/>
-      <c r="I194" s="179"/>
+      <c r="H194" s="203"/>
+      <c r="I194" s="203"/>
       <c r="J194" s="22"/>
-      <c r="K194" s="189"/>
+      <c r="K194" s="222"/>
       <c r="L194" s="52"/>
     </row>
-    <row r="195" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A195" s="15" t="s">
         <v>78</v>
       </c>
@@ -8790,13 +8802,13 @@
       <c r="G195" s="147">
         <v>0.72</v>
       </c>
-      <c r="H195" s="179"/>
-      <c r="I195" s="179"/>
+      <c r="H195" s="203"/>
+      <c r="I195" s="203"/>
       <c r="J195" s="22"/>
-      <c r="K195" s="189"/>
+      <c r="K195" s="222"/>
       <c r="L195" s="52"/>
     </row>
-    <row r="196" spans="1:16" s="98" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" s="98" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A196" s="80" t="s">
         <v>1</v>
       </c>
@@ -8805,7 +8817,7 @@
       <c r="D196" s="94"/>
       <c r="E196" s="94"/>
       <c r="F196" s="81"/>
-      <c r="G196" s="237"/>
+      <c r="G196" s="186"/>
       <c r="H196" s="79"/>
       <c r="I196" s="76"/>
       <c r="J196" s="95"/>
@@ -8816,7 +8828,7 @@
       <c r="O196" s="96"/>
       <c r="P196" s="97"/>
     </row>
-    <row r="197" spans="1:16" s="90" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" s="90" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A197" s="31" t="s">
         <v>320</v>
       </c>
@@ -8835,16 +8847,16 @@
       <c r="F197" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="G197" s="238">
+      <c r="G197" s="187">
         <v>526</v>
       </c>
-      <c r="H197" s="197" t="s">
+      <c r="H197" s="210" t="s">
         <v>164</v>
       </c>
-      <c r="I197" s="186" t="s">
+      <c r="I197" s="228" t="s">
         <v>321</v>
       </c>
-      <c r="K197" s="193">
+      <c r="K197" s="217">
         <v>49</v>
       </c>
       <c r="M197" s="99">
@@ -8855,11 +8867,11 @@
         <f>G197</f>
         <v>526</v>
       </c>
-      <c r="O197" s="190" t="s">
+      <c r="O197" s="223" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="198" spans="1:16" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" s="90" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A198" s="31" t="s">
         <v>78</v>
       </c>
@@ -8878,17 +8890,17 @@
       <c r="F198" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="G198" s="238">
+      <c r="G198" s="187">
         <v>833</v>
       </c>
-      <c r="H198" s="197"/>
-      <c r="I198" s="186"/>
-      <c r="K198" s="193"/>
+      <c r="H198" s="210"/>
+      <c r="I198" s="228"/>
+      <c r="K198" s="217"/>
       <c r="M198" s="100"/>
       <c r="N198" s="100"/>
-      <c r="O198" s="191"/>
-    </row>
-    <row r="199" spans="1:16" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O198" s="224"/>
+    </row>
+    <row r="199" spans="1:16" s="90" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A199" s="31" t="s">
         <v>78</v>
       </c>
@@ -8907,17 +8919,17 @@
       <c r="F199" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="G199" s="238">
+      <c r="G199" s="187">
         <v>833</v>
       </c>
-      <c r="H199" s="197"/>
-      <c r="I199" s="186"/>
-      <c r="K199" s="193"/>
+      <c r="H199" s="210"/>
+      <c r="I199" s="228"/>
+      <c r="K199" s="217"/>
       <c r="M199" s="100"/>
       <c r="N199" s="100"/>
-      <c r="O199" s="191"/>
-    </row>
-    <row r="200" spans="1:16" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O199" s="224"/>
+    </row>
+    <row r="200" spans="1:16" s="90" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A200" s="31" t="s">
         <v>78</v>
       </c>
@@ -8936,17 +8948,17 @@
       <c r="F200" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="G200" s="238">
+      <c r="G200" s="187">
         <v>1009</v>
       </c>
-      <c r="H200" s="197"/>
-      <c r="I200" s="186"/>
-      <c r="K200" s="193"/>
+      <c r="H200" s="210"/>
+      <c r="I200" s="228"/>
+      <c r="K200" s="217"/>
       <c r="M200" s="100"/>
       <c r="N200" s="100"/>
-      <c r="O200" s="191"/>
-    </row>
-    <row r="201" spans="1:16" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O200" s="224"/>
+    </row>
+    <row r="201" spans="1:16" s="90" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A201" s="33" t="s">
         <v>78</v>
       </c>
@@ -8965,17 +8977,17 @@
       <c r="F201" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="G201" s="239">
+      <c r="G201" s="188">
         <v>1579</v>
       </c>
-      <c r="H201" s="197"/>
-      <c r="I201" s="186"/>
-      <c r="K201" s="193"/>
+      <c r="H201" s="210"/>
+      <c r="I201" s="228"/>
+      <c r="K201" s="217"/>
       <c r="M201" s="101"/>
       <c r="N201" s="101"/>
-      <c r="O201" s="191"/>
-    </row>
-    <row r="202" spans="1:16" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O201" s="224"/>
+    </row>
+    <row r="202" spans="1:16" s="90" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A202" s="29" t="s">
         <v>78</v>
       </c>
@@ -8994,12 +9006,12 @@
       <c r="F202" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="G202" s="240">
+      <c r="G202" s="189">
         <v>614</v>
       </c>
-      <c r="H202" s="197"/>
-      <c r="I202" s="186"/>
-      <c r="K202" s="193"/>
+      <c r="H202" s="210"/>
+      <c r="I202" s="228"/>
+      <c r="K202" s="217"/>
       <c r="M202" s="99">
         <f>19.9*30.5</f>
         <v>606.94999999999993</v>
@@ -9008,9 +9020,9 @@
         <f>G202</f>
         <v>614</v>
       </c>
-      <c r="O202" s="191"/>
-    </row>
-    <row r="203" spans="1:16" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O202" s="224"/>
+    </row>
+    <row r="203" spans="1:16" s="90" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A203" s="31" t="s">
         <v>78</v>
       </c>
@@ -9029,17 +9041,17 @@
       <c r="F203" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="G203" s="238">
+      <c r="G203" s="187">
         <v>702</v>
       </c>
-      <c r="H203" s="197"/>
-      <c r="I203" s="186"/>
-      <c r="K203" s="193"/>
+      <c r="H203" s="210"/>
+      <c r="I203" s="228"/>
+      <c r="K203" s="217"/>
       <c r="M203" s="100"/>
       <c r="N203" s="100"/>
-      <c r="O203" s="191"/>
-    </row>
-    <row r="204" spans="1:16" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O203" s="224"/>
+    </row>
+    <row r="204" spans="1:16" s="90" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A204" s="31" t="s">
         <v>78</v>
       </c>
@@ -9058,17 +9070,17 @@
       <c r="F204" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="G204" s="238">
+      <c r="G204" s="187">
         <v>1140</v>
       </c>
-      <c r="H204" s="197"/>
-      <c r="I204" s="186"/>
-      <c r="K204" s="193"/>
+      <c r="H204" s="210"/>
+      <c r="I204" s="228"/>
+      <c r="K204" s="217"/>
       <c r="M204" s="100"/>
       <c r="N204" s="100"/>
-      <c r="O204" s="191"/>
-    </row>
-    <row r="205" spans="1:16" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O204" s="224"/>
+    </row>
+    <row r="205" spans="1:16" s="90" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A205" s="31" t="s">
         <v>78</v>
       </c>
@@ -9087,17 +9099,17 @@
       <c r="F205" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="G205" s="238">
+      <c r="G205" s="187">
         <v>1535</v>
       </c>
-      <c r="H205" s="197"/>
-      <c r="I205" s="186"/>
-      <c r="K205" s="193"/>
+      <c r="H205" s="210"/>
+      <c r="I205" s="228"/>
+      <c r="K205" s="217"/>
       <c r="M205" s="100"/>
       <c r="N205" s="100"/>
-      <c r="O205" s="191"/>
-    </row>
-    <row r="206" spans="1:16" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O205" s="224"/>
+    </row>
+    <row r="206" spans="1:16" s="90" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A206" s="33" t="s">
         <v>78</v>
       </c>
@@ -9116,17 +9128,17 @@
       <c r="F206" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="G206" s="239">
+      <c r="G206" s="188">
         <v>1623</v>
       </c>
-      <c r="H206" s="197"/>
-      <c r="I206" s="186"/>
-      <c r="K206" s="193"/>
+      <c r="H206" s="210"/>
+      <c r="I206" s="228"/>
+      <c r="K206" s="217"/>
       <c r="M206" s="101"/>
       <c r="N206" s="101"/>
-      <c r="O206" s="191"/>
-    </row>
-    <row r="207" spans="1:16" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O206" s="224"/>
+    </row>
+    <row r="207" spans="1:16" s="90" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A207" s="29" t="s">
         <v>78</v>
       </c>
@@ -9145,12 +9157,12 @@
       <c r="F207" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="G207" s="240">
+      <c r="G207" s="189">
         <v>301</v>
       </c>
-      <c r="H207" s="197"/>
-      <c r="I207" s="186"/>
-      <c r="K207" s="193"/>
+      <c r="H207" s="210"/>
+      <c r="I207" s="228"/>
+      <c r="K207" s="217"/>
       <c r="M207" s="99">
         <f>7.7*30.5</f>
         <v>234.85</v>
@@ -9159,9 +9171,9 @@
         <f>G207</f>
         <v>301</v>
       </c>
-      <c r="O207" s="191"/>
-    </row>
-    <row r="208" spans="1:16" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O207" s="224"/>
+    </row>
+    <row r="208" spans="1:16" s="90" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A208" s="31" t="s">
         <v>78</v>
       </c>
@@ -9180,17 +9192,17 @@
       <c r="F208" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="G208" s="238">
+      <c r="G208" s="187">
         <v>301</v>
       </c>
-      <c r="H208" s="197"/>
-      <c r="I208" s="186"/>
-      <c r="K208" s="193"/>
+      <c r="H208" s="210"/>
+      <c r="I208" s="228"/>
+      <c r="K208" s="217"/>
       <c r="M208" s="100"/>
       <c r="N208" s="100"/>
-      <c r="O208" s="191"/>
-    </row>
-    <row r="209" spans="1:15" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O208" s="224"/>
+    </row>
+    <row r="209" spans="1:15" s="90" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A209" s="31" t="s">
         <v>78</v>
       </c>
@@ -9209,17 +9221,17 @@
       <c r="F209" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="G209" s="238">
+      <c r="G209" s="187">
         <v>301</v>
       </c>
-      <c r="H209" s="197"/>
-      <c r="I209" s="186"/>
-      <c r="K209" s="193"/>
+      <c r="H209" s="210"/>
+      <c r="I209" s="228"/>
+      <c r="K209" s="217"/>
       <c r="M209" s="100"/>
       <c r="N209" s="100"/>
-      <c r="O209" s="191"/>
-    </row>
-    <row r="210" spans="1:15" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O209" s="224"/>
+    </row>
+    <row r="210" spans="1:15" s="90" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A210" s="31" t="s">
         <v>78</v>
       </c>
@@ -9238,17 +9250,17 @@
       <c r="F210" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="G210" s="238">
+      <c r="G210" s="187">
         <v>301</v>
       </c>
-      <c r="H210" s="197"/>
-      <c r="I210" s="186"/>
-      <c r="K210" s="193"/>
+      <c r="H210" s="210"/>
+      <c r="I210" s="228"/>
+      <c r="K210" s="217"/>
       <c r="M210" s="100"/>
       <c r="N210" s="100"/>
-      <c r="O210" s="191"/>
-    </row>
-    <row r="211" spans="1:15" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O210" s="224"/>
+    </row>
+    <row r="211" spans="1:15" s="90" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A211" s="33" t="s">
         <v>78</v>
       </c>
@@ -9267,17 +9279,17 @@
       <c r="F211" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="G211" s="239">
+      <c r="G211" s="188">
         <v>301</v>
       </c>
-      <c r="H211" s="197"/>
-      <c r="I211" s="186"/>
-      <c r="K211" s="193"/>
+      <c r="H211" s="210"/>
+      <c r="I211" s="228"/>
+      <c r="K211" s="217"/>
       <c r="M211" s="101"/>
       <c r="N211" s="101"/>
-      <c r="O211" s="191"/>
-    </row>
-    <row r="212" spans="1:15" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O211" s="224"/>
+    </row>
+    <row r="212" spans="1:15" s="90" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A212" s="29" t="s">
         <v>78</v>
       </c>
@@ -9296,12 +9308,12 @@
       <c r="F212" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="G212" s="240">
+      <c r="G212" s="189">
         <v>1009</v>
       </c>
-      <c r="H212" s="197"/>
-      <c r="I212" s="186"/>
-      <c r="K212" s="193"/>
+      <c r="H212" s="210"/>
+      <c r="I212" s="228"/>
+      <c r="K212" s="217"/>
       <c r="M212" s="99">
         <f>7.7*30.5</f>
         <v>234.85</v>
@@ -9310,9 +9322,9 @@
         <f>G212</f>
         <v>1009</v>
       </c>
-      <c r="O212" s="191"/>
-    </row>
-    <row r="213" spans="1:15" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O212" s="224"/>
+    </row>
+    <row r="213" spans="1:15" s="90" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A213" s="31" t="s">
         <v>78</v>
       </c>
@@ -9331,17 +9343,17 @@
       <c r="F213" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="G213" s="238">
+      <c r="G213" s="187">
         <v>1009</v>
       </c>
-      <c r="H213" s="197"/>
-      <c r="I213" s="186"/>
-      <c r="K213" s="193"/>
+      <c r="H213" s="210"/>
+      <c r="I213" s="228"/>
+      <c r="K213" s="217"/>
       <c r="M213" s="100"/>
       <c r="N213" s="100"/>
-      <c r="O213" s="191"/>
-    </row>
-    <row r="214" spans="1:15" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O213" s="224"/>
+    </row>
+    <row r="214" spans="1:15" s="90" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A214" s="31" t="s">
         <v>78</v>
       </c>
@@ -9360,17 +9372,17 @@
       <c r="F214" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="G214" s="238">
+      <c r="G214" s="187">
         <v>1009</v>
       </c>
-      <c r="H214" s="197"/>
-      <c r="I214" s="186"/>
-      <c r="K214" s="193"/>
+      <c r="H214" s="210"/>
+      <c r="I214" s="228"/>
+      <c r="K214" s="217"/>
       <c r="M214" s="100"/>
       <c r="N214" s="100"/>
-      <c r="O214" s="191"/>
-    </row>
-    <row r="215" spans="1:15" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O214" s="224"/>
+    </row>
+    <row r="215" spans="1:15" s="90" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A215" s="31" t="s">
         <v>78</v>
       </c>
@@ -9389,17 +9401,17 @@
       <c r="F215" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="G215" s="238">
+      <c r="G215" s="187">
         <v>1009</v>
       </c>
-      <c r="H215" s="197"/>
-      <c r="I215" s="186"/>
-      <c r="K215" s="193"/>
+      <c r="H215" s="210"/>
+      <c r="I215" s="228"/>
+      <c r="K215" s="217"/>
       <c r="M215" s="100"/>
       <c r="N215" s="100"/>
-      <c r="O215" s="191"/>
-    </row>
-    <row r="216" spans="1:15" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O215" s="224"/>
+    </row>
+    <row r="216" spans="1:15" s="91" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A216" s="33" t="s">
         <v>78</v>
       </c>
@@ -9418,17 +9430,17 @@
       <c r="F216" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="G216" s="239">
+      <c r="G216" s="188">
         <v>1009</v>
       </c>
-      <c r="H216" s="197"/>
-      <c r="I216" s="186"/>
-      <c r="K216" s="193"/>
+      <c r="H216" s="210"/>
+      <c r="I216" s="228"/>
+      <c r="K216" s="217"/>
       <c r="M216" s="101"/>
       <c r="N216" s="101"/>
-      <c r="O216" s="192"/>
-    </row>
-    <row r="217" spans="1:15" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O216" s="225"/>
+    </row>
+    <row r="217" spans="1:15" s="75" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A217" s="86" t="s">
         <v>218</v>
       </c>
@@ -9437,13 +9449,13 @@
       <c r="D217" s="82"/>
       <c r="E217" s="83"/>
       <c r="F217" s="83"/>
-      <c r="G217" s="241"/>
+      <c r="G217" s="190"/>
       <c r="H217" s="85"/>
       <c r="I217" s="85"/>
       <c r="J217" s="82"/>
       <c r="K217" s="82"/>
     </row>
-    <row r="218" spans="1:15" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" s="46" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A218" s="42" t="s">
         <v>218</v>
       </c>
@@ -9458,7 +9470,7 @@
       <c r="F218" s="43" t="s">
         <v>468</v>
       </c>
-      <c r="G218" s="221">
+      <c r="G218" s="170">
         <v>69</v>
       </c>
       <c r="H218" s="36" t="s">
@@ -9474,7 +9486,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="219" spans="1:15" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" s="75" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A219" s="87" t="s">
         <v>269</v>
       </c>
@@ -9483,7 +9495,7 @@
       <c r="D219" s="87"/>
       <c r="E219" s="82"/>
       <c r="F219" s="82"/>
-      <c r="G219" s="242"/>
+      <c r="G219" s="191"/>
       <c r="H219" s="83"/>
       <c r="I219" s="83"/>
       <c r="J219" s="83"/>
@@ -9493,7 +9505,7 @@
       <c r="N219" s="85"/>
       <c r="O219" s="82"/>
     </row>
-    <row r="220" spans="1:15" s="48" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" s="48" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A220" s="2" t="s">
         <v>48</v>
       </c>
@@ -9510,27 +9522,27 @@
       <c r="F220" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="G220" s="221">
+      <c r="G220" s="170">
         <v>1</v>
       </c>
-      <c r="H220" s="179" t="s">
+      <c r="H220" s="203" t="s">
         <v>167</v>
       </c>
       <c r="I220" s="152" t="s">
         <v>240</v>
       </c>
-      <c r="J220" s="180" t="s">
+      <c r="J220" s="201" t="s">
         <v>185</v>
       </c>
       <c r="K220" s="45"/>
-      <c r="L220" s="187" t="s">
+      <c r="L220" s="220" t="s">
         <v>211</v>
       </c>
       <c r="M220" s="23"/>
       <c r="N220" s="23"/>
       <c r="O220" s="49"/>
     </row>
-    <row r="221" spans="1:15" s="48" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" s="48" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A221" s="14" t="s">
         <v>139</v>
       </c>
@@ -9547,21 +9559,21 @@
       <c r="F221" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="G221" s="221">
+      <c r="G221" s="170">
         <v>1</v>
       </c>
-      <c r="H221" s="179"/>
+      <c r="H221" s="203"/>
       <c r="I221" s="152" t="s">
         <v>240</v>
       </c>
-      <c r="J221" s="180"/>
+      <c r="J221" s="201"/>
       <c r="K221" s="45"/>
-      <c r="L221" s="187"/>
+      <c r="L221" s="220"/>
       <c r="M221" s="23"/>
       <c r="N221" s="23"/>
       <c r="O221" s="49"/>
     </row>
-    <row r="222" spans="1:15" s="119" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" s="119" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A222" s="118" t="s">
         <v>366</v>
       </c>
@@ -9570,7 +9582,7 @@
       <c r="D222" s="117"/>
       <c r="E222" s="118"/>
       <c r="F222" s="117"/>
-      <c r="G222" s="243"/>
+      <c r="G222" s="192"/>
       <c r="H222" s="120"/>
       <c r="I222" s="123"/>
       <c r="J222" s="121"/>
@@ -9580,7 +9592,7 @@
       <c r="N222" s="124"/>
       <c r="O222" s="124"/>
     </row>
-    <row r="223" spans="1:15" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A223" s="35" t="s">
         <v>396</v>
       </c>
@@ -9593,7 +9605,7 @@
       <c r="D223" s="116" t="s">
         <v>367</v>
       </c>
-      <c r="E223" s="176" t="s">
+      <c r="E223" s="243" t="s">
         <v>393</v>
       </c>
       <c r="F223" s="3" t="s">
@@ -9602,21 +9614,21 @@
       <c r="G223" s="116">
         <v>0.02</v>
       </c>
-      <c r="H223" s="183" t="s">
+      <c r="H223" s="226" t="s">
         <v>167</v>
       </c>
-      <c r="I223" s="184" t="s">
+      <c r="I223" s="221" t="s">
         <v>240</v>
       </c>
       <c r="J223" s="7"/>
-      <c r="K223" s="184">
+      <c r="K223" s="221">
         <v>178</v>
       </c>
-      <c r="O223" s="203" t="s">
+      <c r="O223" s="202" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="224" spans="1:15" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A224" s="35" t="s">
         <v>396</v>
       </c>
@@ -9629,20 +9641,20 @@
       <c r="D224" s="116" t="s">
         <v>374</v>
       </c>
-      <c r="E224" s="177"/>
+      <c r="E224" s="244"/>
       <c r="F224" s="3" t="s">
         <v>508</v>
       </c>
       <c r="G224" s="116">
         <v>0.02</v>
       </c>
-      <c r="H224" s="183"/>
-      <c r="I224" s="184"/>
+      <c r="H224" s="226"/>
+      <c r="I224" s="221"/>
       <c r="J224" s="7"/>
-      <c r="K224" s="184"/>
-      <c r="O224" s="198"/>
-    </row>
-    <row r="225" spans="1:15" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K224" s="221"/>
+      <c r="O224" s="211"/>
+    </row>
+    <row r="225" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A225" s="35" t="s">
         <v>396</v>
       </c>
@@ -9655,20 +9667,20 @@
       <c r="D225" s="116" t="s">
         <v>375</v>
       </c>
-      <c r="E225" s="177"/>
+      <c r="E225" s="244"/>
       <c r="F225" s="3" t="s">
         <v>508</v>
       </c>
       <c r="G225" s="116">
         <v>0.02</v>
       </c>
-      <c r="H225" s="183"/>
-      <c r="I225" s="184"/>
+      <c r="H225" s="226"/>
+      <c r="I225" s="221"/>
       <c r="J225" s="7"/>
-      <c r="K225" s="184"/>
-      <c r="O225" s="198"/>
-    </row>
-    <row r="226" spans="1:15" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K225" s="221"/>
+      <c r="O225" s="211"/>
+    </row>
+    <row r="226" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A226" s="35" t="s">
         <v>396</v>
       </c>
@@ -9681,20 +9693,20 @@
       <c r="D226" s="116" t="s">
         <v>376</v>
       </c>
-      <c r="E226" s="177"/>
+      <c r="E226" s="244"/>
       <c r="F226" s="3" t="s">
         <v>508</v>
       </c>
       <c r="G226" s="116">
         <v>0.02</v>
       </c>
-      <c r="H226" s="183"/>
-      <c r="I226" s="184"/>
+      <c r="H226" s="226"/>
+      <c r="I226" s="221"/>
       <c r="J226" s="7"/>
-      <c r="K226" s="184"/>
-      <c r="O226" s="198"/>
-    </row>
-    <row r="227" spans="1:15" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K226" s="221"/>
+      <c r="O226" s="211"/>
+    </row>
+    <row r="227" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A227" s="35" t="s">
         <v>396</v>
       </c>
@@ -9707,20 +9719,20 @@
       <c r="D227" s="116" t="s">
         <v>377</v>
       </c>
-      <c r="E227" s="177"/>
+      <c r="E227" s="244"/>
       <c r="F227" s="3" t="s">
         <v>508</v>
       </c>
       <c r="G227" s="116">
         <v>0.02</v>
       </c>
-      <c r="H227" s="183"/>
-      <c r="I227" s="184"/>
+      <c r="H227" s="226"/>
+      <c r="I227" s="221"/>
       <c r="J227" s="7"/>
-      <c r="K227" s="184"/>
-      <c r="O227" s="198"/>
-    </row>
-    <row r="228" spans="1:15" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K227" s="221"/>
+      <c r="O227" s="211"/>
+    </row>
+    <row r="228" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A228" s="35" t="s">
         <v>396</v>
       </c>
@@ -9733,20 +9745,20 @@
       <c r="D228" s="116" t="s">
         <v>378</v>
       </c>
-      <c r="E228" s="177"/>
+      <c r="E228" s="244"/>
       <c r="F228" s="3" t="s">
         <v>508</v>
       </c>
       <c r="G228" s="116">
         <v>0.02</v>
       </c>
-      <c r="H228" s="183"/>
-      <c r="I228" s="184"/>
+      <c r="H228" s="226"/>
+      <c r="I228" s="221"/>
       <c r="J228" s="7"/>
-      <c r="K228" s="184"/>
-      <c r="O228" s="198"/>
-    </row>
-    <row r="229" spans="1:15" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K228" s="221"/>
+      <c r="O228" s="211"/>
+    </row>
+    <row r="229" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A229" s="35" t="s">
         <v>396</v>
       </c>
@@ -9759,20 +9771,20 @@
       <c r="D229" s="116" t="s">
         <v>379</v>
       </c>
-      <c r="E229" s="177"/>
+      <c r="E229" s="244"/>
       <c r="F229" s="3" t="s">
         <v>508</v>
       </c>
       <c r="G229" s="116">
         <v>0.02</v>
       </c>
-      <c r="H229" s="183"/>
-      <c r="I229" s="184"/>
+      <c r="H229" s="226"/>
+      <c r="I229" s="221"/>
       <c r="J229" s="7"/>
-      <c r="K229" s="184"/>
-      <c r="O229" s="198"/>
-    </row>
-    <row r="230" spans="1:15" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K229" s="221"/>
+      <c r="O229" s="211"/>
+    </row>
+    <row r="230" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A230" s="35" t="s">
         <v>396</v>
       </c>
@@ -9785,20 +9797,20 @@
       <c r="D230" s="116" t="s">
         <v>380</v>
       </c>
-      <c r="E230" s="177"/>
+      <c r="E230" s="244"/>
       <c r="F230" s="3" t="s">
         <v>508</v>
       </c>
       <c r="G230" s="116">
         <v>0.02</v>
       </c>
-      <c r="H230" s="183"/>
-      <c r="I230" s="184"/>
+      <c r="H230" s="226"/>
+      <c r="I230" s="221"/>
       <c r="J230" s="7"/>
-      <c r="K230" s="184"/>
-      <c r="O230" s="198"/>
-    </row>
-    <row r="231" spans="1:15" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K230" s="221"/>
+      <c r="O230" s="211"/>
+    </row>
+    <row r="231" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A231" s="35" t="s">
         <v>396</v>
       </c>
@@ -9811,20 +9823,20 @@
       <c r="D231" s="116" t="s">
         <v>381</v>
       </c>
-      <c r="E231" s="177"/>
+      <c r="E231" s="244"/>
       <c r="F231" s="3" t="s">
         <v>508</v>
       </c>
       <c r="G231" s="116">
         <v>0.02</v>
       </c>
-      <c r="H231" s="183"/>
-      <c r="I231" s="184"/>
+      <c r="H231" s="226"/>
+      <c r="I231" s="221"/>
       <c r="J231" s="7"/>
-      <c r="K231" s="184"/>
-      <c r="O231" s="198"/>
-    </row>
-    <row r="232" spans="1:15" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K231" s="221"/>
+      <c r="O231" s="211"/>
+    </row>
+    <row r="232" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A232" s="35" t="s">
         <v>396</v>
       </c>
@@ -9837,20 +9849,20 @@
       <c r="D232" s="116" t="s">
         <v>382</v>
       </c>
-      <c r="E232" s="177"/>
+      <c r="E232" s="244"/>
       <c r="F232" s="3" t="s">
         <v>508</v>
       </c>
       <c r="G232" s="116">
         <v>0.02</v>
       </c>
-      <c r="H232" s="183"/>
-      <c r="I232" s="184"/>
+      <c r="H232" s="226"/>
+      <c r="I232" s="221"/>
       <c r="J232" s="7"/>
-      <c r="K232" s="184"/>
-      <c r="O232" s="198"/>
-    </row>
-    <row r="233" spans="1:15" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K232" s="221"/>
+      <c r="O232" s="211"/>
+    </row>
+    <row r="233" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A233" s="35" t="s">
         <v>396</v>
       </c>
@@ -9863,20 +9875,20 @@
       <c r="D233" s="116" t="s">
         <v>383</v>
       </c>
-      <c r="E233" s="177"/>
+      <c r="E233" s="244"/>
       <c r="F233" s="3" t="s">
         <v>508</v>
       </c>
       <c r="G233" s="116">
         <v>0.02</v>
       </c>
-      <c r="H233" s="183"/>
-      <c r="I233" s="184"/>
+      <c r="H233" s="226"/>
+      <c r="I233" s="221"/>
       <c r="J233" s="7"/>
-      <c r="K233" s="184"/>
-      <c r="O233" s="198"/>
-    </row>
-    <row r="234" spans="1:15" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K233" s="221"/>
+      <c r="O233" s="211"/>
+    </row>
+    <row r="234" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A234" s="35" t="s">
         <v>396</v>
       </c>
@@ -9889,20 +9901,20 @@
       <c r="D234" s="116" t="s">
         <v>384</v>
       </c>
-      <c r="E234" s="177"/>
+      <c r="E234" s="244"/>
       <c r="F234" s="3" t="s">
         <v>508</v>
       </c>
       <c r="G234" s="116">
         <v>0.02</v>
       </c>
-      <c r="H234" s="183"/>
-      <c r="I234" s="184"/>
+      <c r="H234" s="226"/>
+      <c r="I234" s="221"/>
       <c r="J234" s="7"/>
-      <c r="K234" s="184"/>
-      <c r="O234" s="198"/>
-    </row>
-    <row r="235" spans="1:15" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K234" s="221"/>
+      <c r="O234" s="211"/>
+    </row>
+    <row r="235" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A235" s="35" t="s">
         <v>396</v>
       </c>
@@ -9915,20 +9927,20 @@
       <c r="D235" s="116" t="s">
         <v>385</v>
       </c>
-      <c r="E235" s="177"/>
+      <c r="E235" s="244"/>
       <c r="F235" s="3" t="s">
         <v>508</v>
       </c>
       <c r="G235" s="116">
         <v>0.02</v>
       </c>
-      <c r="H235" s="183"/>
-      <c r="I235" s="184"/>
+      <c r="H235" s="226"/>
+      <c r="I235" s="221"/>
       <c r="J235" s="7"/>
-      <c r="K235" s="184"/>
-      <c r="O235" s="198"/>
-    </row>
-    <row r="236" spans="1:15" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K235" s="221"/>
+      <c r="O235" s="211"/>
+    </row>
+    <row r="236" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A236" s="35" t="s">
         <v>396</v>
       </c>
@@ -9941,20 +9953,20 @@
       <c r="D236" s="116" t="s">
         <v>386</v>
       </c>
-      <c r="E236" s="177"/>
+      <c r="E236" s="244"/>
       <c r="F236" s="3" t="s">
         <v>508</v>
       </c>
       <c r="G236" s="116">
         <v>0.02</v>
       </c>
-      <c r="H236" s="183"/>
-      <c r="I236" s="184"/>
+      <c r="H236" s="226"/>
+      <c r="I236" s="221"/>
       <c r="J236" s="7"/>
-      <c r="K236" s="184"/>
-      <c r="O236" s="198"/>
-    </row>
-    <row r="237" spans="1:15" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K236" s="221"/>
+      <c r="O236" s="211"/>
+    </row>
+    <row r="237" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A237" s="35" t="s">
         <v>396</v>
       </c>
@@ -9967,20 +9979,20 @@
       <c r="D237" s="116" t="s">
         <v>387</v>
       </c>
-      <c r="E237" s="177"/>
+      <c r="E237" s="244"/>
       <c r="F237" s="3" t="s">
         <v>508</v>
       </c>
       <c r="G237" s="116">
         <v>0.02</v>
       </c>
-      <c r="H237" s="183"/>
-      <c r="I237" s="184"/>
+      <c r="H237" s="226"/>
+      <c r="I237" s="221"/>
       <c r="J237" s="7"/>
-      <c r="K237" s="184"/>
-      <c r="O237" s="198"/>
-    </row>
-    <row r="238" spans="1:15" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K237" s="221"/>
+      <c r="O237" s="211"/>
+    </row>
+    <row r="238" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A238" s="35" t="s">
         <v>396</v>
       </c>
@@ -9993,20 +10005,20 @@
       <c r="D238" s="116" t="s">
         <v>388</v>
       </c>
-      <c r="E238" s="177"/>
+      <c r="E238" s="244"/>
       <c r="F238" s="3" t="s">
         <v>508</v>
       </c>
       <c r="G238" s="116">
         <v>0.02</v>
       </c>
-      <c r="H238" s="183"/>
-      <c r="I238" s="184"/>
+      <c r="H238" s="226"/>
+      <c r="I238" s="221"/>
       <c r="J238" s="7"/>
-      <c r="K238" s="184"/>
-      <c r="O238" s="198"/>
-    </row>
-    <row r="239" spans="1:15" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K238" s="221"/>
+      <c r="O238" s="211"/>
+    </row>
+    <row r="239" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A239" s="35" t="s">
         <v>396</v>
       </c>
@@ -10019,20 +10031,20 @@
       <c r="D239" s="116" t="s">
         <v>389</v>
       </c>
-      <c r="E239" s="177"/>
+      <c r="E239" s="244"/>
       <c r="F239" s="3" t="s">
         <v>508</v>
       </c>
       <c r="G239" s="116">
         <v>0.02</v>
       </c>
-      <c r="H239" s="183"/>
-      <c r="I239" s="184"/>
+      <c r="H239" s="226"/>
+      <c r="I239" s="221"/>
       <c r="J239" s="7"/>
-      <c r="K239" s="184"/>
-      <c r="O239" s="198"/>
-    </row>
-    <row r="240" spans="1:15" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K239" s="221"/>
+      <c r="O239" s="211"/>
+    </row>
+    <row r="240" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A240" s="35" t="s">
         <v>396</v>
       </c>
@@ -10045,20 +10057,20 @@
       <c r="D240" s="116" t="s">
         <v>390</v>
       </c>
-      <c r="E240" s="177"/>
+      <c r="E240" s="244"/>
       <c r="F240" s="3" t="s">
         <v>508</v>
       </c>
       <c r="G240" s="116">
         <v>0.02</v>
       </c>
-      <c r="H240" s="183"/>
-      <c r="I240" s="184"/>
+      <c r="H240" s="226"/>
+      <c r="I240" s="221"/>
       <c r="J240" s="7"/>
-      <c r="K240" s="184"/>
-      <c r="O240" s="198"/>
-    </row>
-    <row r="241" spans="1:15" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K240" s="221"/>
+      <c r="O240" s="211"/>
+    </row>
+    <row r="241" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A241" s="35" t="s">
         <v>396</v>
       </c>
@@ -10071,20 +10083,20 @@
       <c r="D241" s="116" t="s">
         <v>391</v>
       </c>
-      <c r="E241" s="177"/>
+      <c r="E241" s="244"/>
       <c r="F241" s="3" t="s">
         <v>508</v>
       </c>
       <c r="G241" s="116">
         <v>0.02</v>
       </c>
-      <c r="H241" s="183"/>
-      <c r="I241" s="184"/>
+      <c r="H241" s="226"/>
+      <c r="I241" s="221"/>
       <c r="J241" s="7"/>
-      <c r="K241" s="184"/>
-      <c r="O241" s="198"/>
-    </row>
-    <row r="242" spans="1:15" s="53" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K241" s="221"/>
+      <c r="O241" s="211"/>
+    </row>
+    <row r="242" spans="1:15" s="53" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A242" s="35" t="s">
         <v>396</v>
       </c>
@@ -10097,21 +10109,72 @@
       <c r="D242" s="116" t="s">
         <v>392</v>
       </c>
-      <c r="E242" s="178"/>
+      <c r="E242" s="245"/>
       <c r="F242" s="3" t="s">
         <v>508</v>
       </c>
       <c r="G242" s="116">
         <v>0.02</v>
       </c>
-      <c r="H242" s="183"/>
-      <c r="I242" s="184"/>
+      <c r="H242" s="226"/>
+      <c r="I242" s="221"/>
       <c r="J242" s="7"/>
-      <c r="K242" s="184"/>
-      <c r="O242" s="198"/>
+      <c r="K242" s="221"/>
+      <c r="O242" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="E48:E69"/>
+    <mergeCell ref="E26:E47"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="E223:E242"/>
+    <mergeCell ref="I17:I22"/>
+    <mergeCell ref="O17:O22"/>
+    <mergeCell ref="N17:N22"/>
+    <mergeCell ref="M17:M22"/>
+    <mergeCell ref="K17:K22"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="H220:H221"/>
+    <mergeCell ref="H223:H242"/>
+    <mergeCell ref="I223:I242"/>
+    <mergeCell ref="I155:I164"/>
+    <mergeCell ref="I166:I195"/>
+    <mergeCell ref="I197:I216"/>
+    <mergeCell ref="J220:J221"/>
+    <mergeCell ref="L220:L221"/>
+    <mergeCell ref="K223:K242"/>
+    <mergeCell ref="O223:O242"/>
+    <mergeCell ref="K171:K195"/>
+    <mergeCell ref="O197:O216"/>
+    <mergeCell ref="K197:K216"/>
+    <mergeCell ref="F155:F164"/>
+    <mergeCell ref="K166:K170"/>
+    <mergeCell ref="H155:H164"/>
+    <mergeCell ref="J155:J164"/>
+    <mergeCell ref="K155:K164"/>
+    <mergeCell ref="H166:H195"/>
+    <mergeCell ref="O88:O91"/>
+    <mergeCell ref="H48:H67"/>
+    <mergeCell ref="J48:J67"/>
+    <mergeCell ref="K48:K67"/>
+    <mergeCell ref="F145:F154"/>
+    <mergeCell ref="J145:J154"/>
+    <mergeCell ref="H197:H216"/>
+    <mergeCell ref="O96:O115"/>
+    <mergeCell ref="H117:H121"/>
+    <mergeCell ref="J117:J121"/>
+    <mergeCell ref="K117:K121"/>
+    <mergeCell ref="O117:O118"/>
+    <mergeCell ref="L96:L115"/>
+    <mergeCell ref="M96:M115"/>
+    <mergeCell ref="N96:N115"/>
+    <mergeCell ref="M48:M67"/>
+    <mergeCell ref="H71:H86"/>
+    <mergeCell ref="N48:N67"/>
+    <mergeCell ref="J71:J86"/>
+    <mergeCell ref="O71:O86"/>
+    <mergeCell ref="O58:O62"/>
     <mergeCell ref="H9:H14"/>
     <mergeCell ref="J9:J14"/>
     <mergeCell ref="K9:K14"/>
@@ -10126,59 +10189,8 @@
     <mergeCell ref="K96:K115"/>
     <mergeCell ref="F58:F62"/>
     <mergeCell ref="F48:F57"/>
-    <mergeCell ref="M48:M67"/>
-    <mergeCell ref="H71:H86"/>
-    <mergeCell ref="N48:N67"/>
-    <mergeCell ref="J71:J86"/>
-    <mergeCell ref="O71:O86"/>
-    <mergeCell ref="O58:O62"/>
     <mergeCell ref="F63:F67"/>
-    <mergeCell ref="H197:H216"/>
-    <mergeCell ref="O96:O115"/>
-    <mergeCell ref="H117:H121"/>
-    <mergeCell ref="J117:J121"/>
-    <mergeCell ref="K117:K121"/>
-    <mergeCell ref="O117:O118"/>
-    <mergeCell ref="L96:L115"/>
-    <mergeCell ref="M96:M115"/>
-    <mergeCell ref="N96:N115"/>
-    <mergeCell ref="O88:O91"/>
-    <mergeCell ref="H48:H67"/>
-    <mergeCell ref="J48:J67"/>
-    <mergeCell ref="K48:K67"/>
-    <mergeCell ref="F145:F154"/>
-    <mergeCell ref="J145:J154"/>
-    <mergeCell ref="F155:F164"/>
-    <mergeCell ref="K166:K170"/>
-    <mergeCell ref="H155:H164"/>
-    <mergeCell ref="J155:J164"/>
-    <mergeCell ref="K155:K164"/>
-    <mergeCell ref="H166:H195"/>
-    <mergeCell ref="J220:J221"/>
-    <mergeCell ref="L220:L221"/>
-    <mergeCell ref="K223:K242"/>
-    <mergeCell ref="O223:O242"/>
-    <mergeCell ref="K171:K195"/>
-    <mergeCell ref="O197:O216"/>
-    <mergeCell ref="K197:K216"/>
-    <mergeCell ref="H220:H221"/>
-    <mergeCell ref="H223:H242"/>
-    <mergeCell ref="I223:I242"/>
-    <mergeCell ref="I155:I164"/>
-    <mergeCell ref="I166:I195"/>
-    <mergeCell ref="I197:I216"/>
     <mergeCell ref="H17:H22"/>
-    <mergeCell ref="I17:I22"/>
-    <mergeCell ref="O17:O22"/>
-    <mergeCell ref="N17:N22"/>
-    <mergeCell ref="M17:M22"/>
-    <mergeCell ref="K17:K22"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="E48:E69"/>
-    <mergeCell ref="E26:E47"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="E223:E242"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10189,26 +10201,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E6C066-3AF5-44B8-A881-845A742313C5}">
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="3" width="25.7109375" style="53" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="53" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="9" width="25.7109375" style="53" customWidth="1"/>
-    <col min="10" max="10" width="67.7109375" style="154" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" style="53" customWidth="1"/>
-    <col min="13" max="18" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.73046875" customWidth="1"/>
+    <col min="2" max="3" width="25.73046875" style="53" customWidth="1"/>
+    <col min="4" max="4" width="25.73046875" customWidth="1"/>
+    <col min="5" max="5" width="25.73046875" style="53" customWidth="1"/>
+    <col min="6" max="6" width="25.73046875" customWidth="1"/>
+    <col min="7" max="9" width="25.73046875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="67.73046875" style="154" customWidth="1"/>
+    <col min="11" max="11" width="25.73046875" customWidth="1"/>
+    <col min="12" max="12" width="25.73046875" style="53" customWidth="1"/>
+    <col min="13" max="18" width="25.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
@@ -10264,7 +10276,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="56" t="s">
         <v>252</v>
       </c>
@@ -10286,7 +10298,7 @@
       <c r="Q2" s="16"/>
       <c r="R2" s="16"/>
     </row>
-    <row r="3" spans="1:18" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="88" t="s">
         <v>266</v>
       </c>
@@ -10321,7 +10333,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="15" t="s">
         <v>477</v>
       </c>
@@ -10346,7 +10358,7 @@
       <c r="Q4" s="22"/>
       <c r="R4" s="35"/>
     </row>
-    <row r="5" spans="1:18" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="107" t="s">
         <v>474</v>
       </c>
@@ -10379,7 +10391,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="107" t="s">
         <v>474</v>
       </c>
@@ -10402,24 +10414,24 @@
         <f>1/4</f>
         <v>0.25</v>
       </c>
-      <c r="K6" s="208"/>
+      <c r="K6" s="199"/>
       <c r="L6" s="163" t="s">
         <v>239</v>
       </c>
       <c r="M6" s="164" t="s">
         <v>476</v>
       </c>
-      <c r="N6" s="180"/>
-      <c r="O6" s="211" t="s">
+      <c r="N6" s="201"/>
+      <c r="O6" s="248" t="s">
         <v>214</v>
       </c>
-      <c r="P6" s="212"/>
-      <c r="Q6" s="212"/>
-      <c r="R6" s="207" t="s">
+      <c r="P6" s="249"/>
+      <c r="Q6" s="249"/>
+      <c r="R6" s="209" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="107" t="s">
         <v>474</v>
       </c>
@@ -10442,20 +10454,20 @@
         <f>1/4</f>
         <v>0.25</v>
       </c>
-      <c r="K7" s="208"/>
+      <c r="K7" s="199"/>
       <c r="L7" s="163" t="s">
         <v>239</v>
       </c>
       <c r="M7" s="164" t="s">
         <v>476</v>
       </c>
-      <c r="N7" s="180"/>
-      <c r="O7" s="211"/>
-      <c r="P7" s="212"/>
-      <c r="Q7" s="212"/>
-      <c r="R7" s="207"/>
-    </row>
-    <row r="8" spans="1:18" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="201"/>
+      <c r="O7" s="248"/>
+      <c r="P7" s="249"/>
+      <c r="Q7" s="249"/>
+      <c r="R7" s="209"/>
+    </row>
+    <row r="8" spans="1:18" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="107" t="s">
         <v>474</v>
       </c>
@@ -10478,20 +10490,20 @@
         <f>1/4</f>
         <v>0.25</v>
       </c>
-      <c r="K8" s="208"/>
+      <c r="K8" s="199"/>
       <c r="L8" s="163" t="s">
         <v>239</v>
       </c>
       <c r="M8" s="164" t="s">
         <v>476</v>
       </c>
-      <c r="N8" s="180"/>
-      <c r="O8" s="211"/>
-      <c r="P8" s="212"/>
-      <c r="Q8" s="212"/>
-      <c r="R8" s="207"/>
-    </row>
-    <row r="9" spans="1:18" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N8" s="201"/>
+      <c r="O8" s="248"/>
+      <c r="P8" s="249"/>
+      <c r="Q8" s="249"/>
+      <c r="R8" s="209"/>
+    </row>
+    <row r="9" spans="1:18" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="107" t="s">
         <v>474</v>
       </c>
@@ -10514,20 +10526,20 @@
         <f>1/4</f>
         <v>0.25</v>
       </c>
-      <c r="K9" s="208"/>
+      <c r="K9" s="199"/>
       <c r="L9" s="163" t="s">
         <v>239</v>
       </c>
       <c r="M9" s="164" t="s">
         <v>476</v>
       </c>
-      <c r="N9" s="180"/>
-      <c r="O9" s="211"/>
-      <c r="P9" s="212"/>
-      <c r="Q9" s="212"/>
-      <c r="R9" s="207"/>
-    </row>
-    <row r="10" spans="1:18" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N9" s="201"/>
+      <c r="O9" s="248"/>
+      <c r="P9" s="249"/>
+      <c r="Q9" s="249"/>
+      <c r="R9" s="209"/>
+    </row>
+    <row r="10" spans="1:18" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="15" t="s">
         <v>202</v>
       </c>
@@ -10549,12 +10561,12 @@
       <c r="J10" s="159">
         <v>0.3</v>
       </c>
-      <c r="K10" s="208"/>
+      <c r="K10" s="199"/>
       <c r="L10" s="139" t="s">
         <v>239</v>
       </c>
       <c r="M10" s="164"/>
-      <c r="N10" s="180"/>
+      <c r="N10" s="201"/>
       <c r="O10" s="114"/>
       <c r="P10" s="140"/>
       <c r="Q10" s="140"/>
@@ -10562,7 +10574,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
         <v>202</v>
       </c>
@@ -10584,12 +10596,12 @@
       <c r="J11" s="159">
         <v>0.06</v>
       </c>
-      <c r="K11" s="208"/>
+      <c r="K11" s="199"/>
       <c r="L11" s="139" t="s">
         <v>239</v>
       </c>
       <c r="M11" s="164"/>
-      <c r="N11" s="180"/>
+      <c r="N11" s="201"/>
       <c r="O11" s="114"/>
       <c r="P11" s="140"/>
       <c r="Q11" s="140"/>
@@ -10597,7 +10609,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="15" t="s">
         <v>202</v>
       </c>
@@ -10619,12 +10631,12 @@
       <c r="J12" s="159">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K12" s="208"/>
+      <c r="K12" s="199"/>
       <c r="L12" s="139" t="s">
         <v>239</v>
       </c>
       <c r="M12" s="164"/>
-      <c r="N12" s="180"/>
+      <c r="N12" s="201"/>
       <c r="O12" s="114"/>
       <c r="P12" s="140"/>
       <c r="Q12" s="140"/>
@@ -10632,7 +10644,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
         <v>202</v>
       </c>
@@ -10655,13 +10667,13 @@
       <c r="J13" s="159" t="s">
         <v>485</v>
       </c>
-      <c r="K13" s="208"/>
+      <c r="K13" s="199"/>
       <c r="L13" s="70" t="s">
         <v>239</v>
       </c>
       <c r="M13" s="164"/>
-      <c r="N13" s="180"/>
-      <c r="O13" s="214" t="s">
+      <c r="N13" s="201"/>
+      <c r="O13" s="246" t="s">
         <v>237</v>
       </c>
       <c r="P13" s="34"/>
@@ -10670,7 +10682,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="15" t="s">
         <v>202</v>
       </c>
@@ -10693,20 +10705,20 @@
       <c r="J14" s="159" t="s">
         <v>487</v>
       </c>
-      <c r="K14" s="208"/>
+      <c r="K14" s="199"/>
       <c r="L14" s="70" t="s">
         <v>239</v>
       </c>
       <c r="M14" s="164"/>
-      <c r="N14" s="180"/>
-      <c r="O14" s="214"/>
+      <c r="N14" s="201"/>
+      <c r="O14" s="246"/>
       <c r="P14" s="34"/>
       <c r="Q14" s="34"/>
       <c r="R14" s="35" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
         <v>202</v>
       </c>
@@ -10729,13 +10741,13 @@
       <c r="J15" s="159" t="s">
         <v>486</v>
       </c>
-      <c r="K15" s="208"/>
+      <c r="K15" s="199"/>
       <c r="L15" s="70" t="s">
         <v>239</v>
       </c>
       <c r="M15" s="164"/>
-      <c r="N15" s="180"/>
-      <c r="O15" s="214"/>
+      <c r="N15" s="201"/>
+      <c r="O15" s="246"/>
       <c r="P15" s="34"/>
       <c r="Q15" s="34"/>
       <c r="R15" s="49">
@@ -10743,7 +10755,7 @@
         <v>6.0094999999999992</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="15" t="s">
         <v>202</v>
       </c>
@@ -10766,20 +10778,20 @@
       <c r="J16" s="159" t="s">
         <v>488</v>
       </c>
-      <c r="K16" s="208"/>
+      <c r="K16" s="199"/>
       <c r="L16" s="70" t="s">
         <v>239</v>
       </c>
       <c r="M16" s="164"/>
-      <c r="N16" s="180"/>
-      <c r="O16" s="214"/>
+      <c r="N16" s="201"/>
+      <c r="O16" s="246"/>
       <c r="P16" s="34"/>
       <c r="Q16" s="34"/>
       <c r="R16" s="35" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="56" t="s">
         <v>253</v>
       </c>
@@ -10801,7 +10813,7 @@
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
     </row>
-    <row r="18" spans="1:18" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="56"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -10821,7 +10833,7 @@
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
     </row>
-    <row r="19" spans="1:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="15" t="s">
         <v>249</v>
       </c>
@@ -10839,28 +10851,28 @@
         <f>(((1-0.304)*0.114*(((0.0082*1.09)+(0.0031*1.09)) /2)*(2.5/52)) + 0.304*0.114*(((0.0082*1.09)+(0.0031*1.09))/2)*(2.5/52))/2</f>
         <v>1.6876658653846158E-5</v>
       </c>
-      <c r="K19" s="180" t="s">
+      <c r="K19" s="201" t="s">
         <v>363</v>
       </c>
       <c r="L19" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="M19" s="215" t="s">
+      <c r="M19" s="247" t="s">
         <v>223</v>
       </c>
-      <c r="N19" s="180">
+      <c r="N19" s="201">
         <v>69</v>
       </c>
-      <c r="O19" s="214" t="s">
+      <c r="O19" s="246" t="s">
         <v>173</v>
       </c>
-      <c r="P19" s="213"/>
-      <c r="Q19" s="213"/>
-      <c r="R19" s="203" t="s">
+      <c r="P19" s="250"/>
+      <c r="Q19" s="250"/>
+      <c r="R19" s="202" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="15" t="s">
         <v>249</v>
       </c>
@@ -10877,18 +10889,18 @@
       <c r="J20" s="160" t="s">
         <v>365</v>
       </c>
-      <c r="K20" s="180"/>
+      <c r="K20" s="201"/>
       <c r="L20" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="M20" s="215"/>
-      <c r="N20" s="180"/>
-      <c r="O20" s="214"/>
-      <c r="P20" s="213"/>
-      <c r="Q20" s="213"/>
-      <c r="R20" s="203"/>
-    </row>
-    <row r="21" spans="1:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="247"/>
+      <c r="N20" s="201"/>
+      <c r="O20" s="246"/>
+      <c r="P20" s="250"/>
+      <c r="Q20" s="250"/>
+      <c r="R20" s="202"/>
+    </row>
+    <row r="21" spans="1:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="15" t="s">
         <v>249</v>
       </c>
@@ -10905,18 +10917,18 @@
       <c r="J21" s="159" t="s">
         <v>506</v>
       </c>
-      <c r="K21" s="180"/>
+      <c r="K21" s="201"/>
       <c r="L21" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="M21" s="215"/>
-      <c r="N21" s="180"/>
-      <c r="O21" s="214"/>
-      <c r="P21" s="213"/>
-      <c r="Q21" s="213"/>
-      <c r="R21" s="203"/>
-    </row>
-    <row r="22" spans="1:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="247"/>
+      <c r="N21" s="201"/>
+      <c r="O21" s="246"/>
+      <c r="P21" s="250"/>
+      <c r="Q21" s="250"/>
+      <c r="R21" s="202"/>
+    </row>
+    <row r="22" spans="1:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="15" t="s">
         <v>249</v>
       </c>
@@ -10931,18 +10943,18 @@
       <c r="H22" s="52"/>
       <c r="I22" s="52"/>
       <c r="J22" s="159"/>
-      <c r="K22" s="180"/>
+      <c r="K22" s="201"/>
       <c r="L22" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="M22" s="215"/>
-      <c r="N22" s="180"/>
-      <c r="O22" s="214"/>
-      <c r="P22" s="213"/>
-      <c r="Q22" s="213"/>
-      <c r="R22" s="203"/>
-    </row>
-    <row r="23" spans="1:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="247"/>
+      <c r="N22" s="201"/>
+      <c r="O22" s="246"/>
+      <c r="P22" s="250"/>
+      <c r="Q22" s="250"/>
+      <c r="R22" s="202"/>
+    </row>
+    <row r="23" spans="1:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="15" t="s">
         <v>249</v>
       </c>
@@ -10957,18 +10969,18 @@
       <c r="H23" s="52"/>
       <c r="I23" s="52"/>
       <c r="J23" s="159"/>
-      <c r="K23" s="180"/>
+      <c r="K23" s="201"/>
       <c r="L23" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="M23" s="215"/>
-      <c r="N23" s="180"/>
-      <c r="O23" s="214"/>
-      <c r="P23" s="213"/>
-      <c r="Q23" s="213"/>
-      <c r="R23" s="203"/>
-    </row>
-    <row r="24" spans="1:18" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M23" s="247"/>
+      <c r="N23" s="201"/>
+      <c r="O23" s="246"/>
+      <c r="P23" s="250"/>
+      <c r="Q23" s="250"/>
+      <c r="R23" s="202"/>
+    </row>
+    <row r="24" spans="1:18" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
         <v>258</v>
       </c>
@@ -10983,7 +10995,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="127" t="s">
         <v>259</v>
       </c>
@@ -11003,7 +11015,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="127" t="s">
         <v>260</v>
       </c>
@@ -11012,7 +11024,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
         <v>504</v>
       </c>
@@ -11026,32 +11038,32 @@
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="J28" s="217" t="s">
+      <c r="J28" s="166" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J29" s="217" t="s">
+      <c r="J29" s="166" t="s">
         <v>264</v>
       </c>
       <c r="N29" s="7">
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="127" t="s">
         <v>260</v>
       </c>
       <c r="J30" s="158"/>
     </row>
-    <row r="31" spans="1:18" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="88" t="s">
         <v>495</v>
       </c>
@@ -11065,14 +11077,14 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="88" t="s">
         <v>497</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="F32" s="218" t="s">
+      <c r="F32" s="167" t="s">
         <v>498</v>
       </c>
       <c r="J32" s="88">
@@ -11082,14 +11094,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="88" t="s">
         <v>499</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="F33" s="218" t="s">
+      <c r="F33" s="167" t="s">
         <v>498</v>
       </c>
       <c r="J33" s="158">
@@ -11099,7 +11111,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="7" t="s">
         <v>502</v>
       </c>
@@ -11113,23 +11125,29 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J35" s="158"/>
     </row>
-    <row r="36" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J36" s="158"/>
     </row>
-    <row r="37" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J37" s="158"/>
     </row>
-    <row r="38" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J38" s="158"/>
     </row>
-    <row r="39" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J39" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="R19:R23"/>
+    <mergeCell ref="P19:P23"/>
     <mergeCell ref="K6:K16"/>
     <mergeCell ref="N6:N16"/>
     <mergeCell ref="O13:O16"/>
@@ -11138,12 +11156,6 @@
     <mergeCell ref="N19:N23"/>
     <mergeCell ref="O19:O23"/>
     <mergeCell ref="O6:O9"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="R19:R23"/>
-    <mergeCell ref="P19:P23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
